--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="01_トップ" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -199,6 +199,52 @@
     <t>ユーザー登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HGN001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -232,12 +278,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -246,8 +372,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -715,12 +868,518 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="12060"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="12060" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="3" r:id="rId1"/>
+    <sheet name="更新履歴" sheetId="4" r:id="rId2"/>
+    <sheet name="画面一覧" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -36,33 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能区分別No</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーチトップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索結果</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム一覧</t>
     <rPh sb="3" eb="5">
       <t>イチラン</t>
@@ -70,16 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シリーズ内ゲーム一覧</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム詳細</t>
     <rPh sb="3" eb="5">
       <t>ショウサイ</t>
@@ -97,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームレビュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,13 +87,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレーヤー一覧</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,13 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各機能へのリンク</t>
-    <rPh sb="0" eb="3">
-      <t>カクキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上部に連携している外部サイトのログイン画面へのリンク
 下部にメールアドレスとパスワードの入力欄</t>
     <rPh sb="0" eb="2">
@@ -229,13 +176,6 @@
     </rPh>
     <rPh sb="46" eb="47">
       <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームシリーズごとにコミュニティが自動でできる</t>
-    <rPh sb="17" eb="19">
-      <t>ジドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -322,13 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン方法</t>
-    <rPh sb="4" eb="6">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部連携サイトが並び、連携済みの場合はその表示と連携解除方法の説明
 、未連携の場合は連携画面へのリンク。
 一番下にメール認証登録画面へのリンク</t>
@@ -492,12 +425,446 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各機能へのリンク
+・ログイン
+・ユーザー新規登録
+・ゲーム一覧
+・登録サイト一覧
+・レビュー
+・コミュニティ</t>
+    <rPh sb="0" eb="3">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトが並ぶ
+遷移元によって、ゲームを選んだ際の遷移先画面が変わる</t>
+    <rPh sb="7" eb="8">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したゲームソフトを取り扱っているサイトの一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したゲームソフトのレビュー一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームレビュー一覧</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したゲームを遊んだことのある人のゲーム一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティに参加しているユーザー一覧</t>
+    <rPh sb="7" eb="9">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティのBBS。
+閲覧ユーザーの投稿</t>
+    <rPh sb="12" eb="14">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームプレーヤー一覧</t>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトに関する情報（発売日など）を表示</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハツバイビ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティトップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンフィグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン方法設定</t>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの各種設定画面へのリンク
+・ログイン方法設定</t>
+    <rPh sb="5" eb="7">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト詳細</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト編集</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトの登録を行う。現状と違い、審査なしで登録できる。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト登録者専用画面。サイトの詳細だけでなく、アクセス数やいいね数、いいねした人の一覧を見られる。</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトの編集を行う。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト絞り込み</t>
+    <rPh sb="3" eb="4">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインコンテンツや、性別指向で検索できる。ゲームソフトでの検索は今回は不可とする。</t>
+    <rPh sb="10" eb="12">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されているサイトの一覧を表示する。
+トップから来た場合は全ゲームソフトで、ゲーム詳細からきた場合はその対象ゲームで一覧表示する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録を行った</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,20 +887,122 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -543,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,11 +1031,171 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -576,8 +1205,141 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1107996" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1107996" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>更新履歴</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1107996" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1107996" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A4:D41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A4:D41"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ver." dataDxfId="5"/>
+    <tableColumn id="2" name="日付" dataDxfId="4"/>
+    <tableColumn id="3" name="シート" dataDxfId="3"/>
+    <tableColumn id="4" name="更新内容" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +1413,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -686,7 +1447,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -862,1410 +1622,2733 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A7:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+    </row>
+    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
+    <row r="10" spans="1:29">
+      <c r="P10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9">
+        <v>42883</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="P11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9">
+        <v>42883</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F7:X7"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:X11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:F171"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="3" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="B4" s="5" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="93.75" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="12">
+        <v>42883</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" ht="75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="37.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="93.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="131.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="37.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="37.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" ht="37.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E71" s="4"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E72" s="4"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E73" s="4"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E75" s="4"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E77" s="4"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E78" s="4"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E79" s="4"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E80" s="4"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E81" s="4"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E82" s="4"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E83" s="4"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E86" s="4"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E87" s="4"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E88" s="4"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E89" s="4"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E90" s="4"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E91" s="4"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E92" s="4"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E93" s="4"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E94" s="4"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E95" s="4"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E96" s="4"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E97" s="4"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E98" s="4"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E101" s="4"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E102" s="4"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E103" s="4"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E104" s="4"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E105" s="4"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E106" s="4"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E107" s="4"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E108" s="4"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E109" s="4"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E110" s="4"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E111" s="4"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E112" s="4"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E113" s="4"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E114" s="4"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E115" s="4"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E116" s="4"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E117" s="4"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E118" s="4"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E119" s="4"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E120" s="4"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E121" s="4"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E122" s="4"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E123" s="4"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E124" s="4"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E125" s="4"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E126" s="4"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E127" s="4"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E128" s="4"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E129" s="4"/>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E130" s="4"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E131" s="4"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E132" s="4"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E133" s="4"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E134" s="4"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E135" s="4"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E136" s="4"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E137" s="4"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E138" s="4"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E139" s="4"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E140" s="4"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E141" s="4"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E142" s="4"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E143" s="4"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E144" s="4"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E145" s="4"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E146" s="4"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E147" s="4"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E148" s="4"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E149" s="4"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E150" s="4"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E151" s="4"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E152" s="4"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E153" s="4"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="3"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E154" s="4"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E155" s="4"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E156" s="4"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="3"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E157" s="4"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E158" s="4"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E159" s="4"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E160" s="4"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F171" s="2"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="E171" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A4:E172"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="132" thickTop="1">
+      <c r="A5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="19"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="56.25">
+      <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="93.75">
+      <c r="A8" s="20"/>
+      <c r="B8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="20"/>
+      <c r="B9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="131.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="75">
+      <c r="A11" s="20"/>
+      <c r="B11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="75">
+      <c r="A14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="37.5">
+      <c r="A15" s="20"/>
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="20"/>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="37.5">
+      <c r="A17" s="20"/>
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="93.75">
+      <c r="A20" s="20"/>
+      <c r="B20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="56.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="131.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="37.5">
+      <c r="A25" s="20"/>
+      <c r="B25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="37.5">
+      <c r="A26" s="20"/>
+      <c r="B26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75">
+      <c r="A27" s="20"/>
+      <c r="B27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="20"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="20"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="75">
+      <c r="A31" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="37.5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="56.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="37.5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="56.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="20"/>
+      <c r="B37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="37.5">
+      <c r="A38" s="20"/>
+      <c r="B38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="37.5">
+      <c r="A39" s="20"/>
+      <c r="B39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="19"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="D172" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A14:A30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="12060" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -859,12 +859,248 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲーム新規登録申請完了</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム新規登録申請</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトに関する情報（発売日など）に間違いがあれば修正を申請する。</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハツバイビ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム修正申請</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム修正申請完了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトの登録申請が完了したこと伝える。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトの登録を申請する。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正申請が完了したことを伝える。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム申請履歴</t>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録または修正申請のログと対応のステータス</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームデータ申請一覧</t>
+    <rPh sb="6" eb="8">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームデータ申請対応(登録)</t>
+    <rPh sb="6" eb="8">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームデータ申請対応(修正)</t>
+    <rPh sb="6" eb="8">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックしているユーザーの一覧</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック解除</t>
+    <rPh sb="4" eb="6">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,18 +1270,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1062,24 +1286,36 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1103,7 +1339,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1121,7 +1357,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1139,7 +1375,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1157,7 +1393,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1175,7 +1411,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1193,7 +1429,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,20 +1562,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A4:D41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A4:D41" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A4:D41"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ver." dataDxfId="5"/>
-    <tableColumn id="2" name="日付" dataDxfId="4"/>
-    <tableColumn id="3" name="シート" dataDxfId="3"/>
-    <tableColumn id="4" name="更新内容" dataDxfId="2"/>
+    <tableColumn id="1" name="ver." dataDxfId="3"/>
+    <tableColumn id="2" name="日付" dataDxfId="2"/>
+    <tableColumn id="3" name="シート" dataDxfId="1"/>
+    <tableColumn id="4" name="更新内容" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1413,6 +1649,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1447,6 +1684,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1622,81 +1860,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
-      <c r="P10" s="8" t="s">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="P10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17">
         <v>42883</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="P11" s="8" t="s">
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="P11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="9">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17">
         <v>42883</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1713,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -1730,7 +1968,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1746,11 +1984,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>42883</v>
       </c>
       <c r="C5" s="3"/>
@@ -1758,143 +1996,143 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1902,7 +2140,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1910,7 +2148,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1918,7 +2156,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1926,7 +2164,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1934,7 +2172,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1942,7 +2180,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1950,7 +2188,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1958,7 +2196,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1966,7 +2204,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1974,7 +2212,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1982,7 +2220,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1990,7 +2228,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1998,7 +2236,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2006,7 +2244,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2014,7 +2252,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2022,7 +2260,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2030,7 +2268,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2038,7 +2276,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2046,7 +2284,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2054,7 +2292,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2062,7 +2300,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2070,7 +2308,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2078,7 +2316,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2086,7 +2324,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2094,7 +2332,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2102,7 +2340,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2110,7 +2348,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2118,7 +2356,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2126,7 +2364,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2134,7 +2372,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2142,7 +2380,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2150,7 +2388,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2158,7 +2396,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2166,7 +2404,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2174,7 +2412,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2182,7 +2420,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2190,7 +2428,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2198,7 +2436,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2206,7 +2444,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2214,7 +2452,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2222,7 +2460,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2230,7 +2468,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2238,7 +2476,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2246,7 +2484,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2254,7 +2492,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2262,7 +2500,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2270,7 +2508,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2278,7 +2516,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2286,7 +2524,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2294,7 +2532,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2302,7 +2540,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2310,7 +2548,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2318,7 +2556,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2326,7 +2564,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2334,7 +2572,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2342,7 +2580,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2350,7 +2588,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2358,7 +2596,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2366,7 +2604,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2374,7 +2612,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2382,7 +2620,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2390,7 +2628,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2398,7 +2636,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2406,7 +2644,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2414,7 +2652,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2422,7 +2660,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2430,7 +2668,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2438,7 +2676,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2446,7 +2684,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2454,7 +2692,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2462,7 +2700,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2470,7 +2708,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2478,7 +2716,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2486,7 +2724,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2494,7 +2732,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2502,7 +2740,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2510,7 +2748,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2518,7 +2756,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2526,7 +2764,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2534,7 +2772,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2542,7 +2780,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2550,7 +2788,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2558,7 +2796,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2566,7 +2804,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2574,7 +2812,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2582,7 +2820,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2590,7 +2828,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2598,7 +2836,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2606,7 +2844,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2614,7 +2852,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2622,7 +2860,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2630,7 +2868,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2638,7 +2876,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2646,7 +2884,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2654,7 +2892,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2662,7 +2900,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2670,7 +2908,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2678,7 +2916,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2686,7 +2924,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2694,7 +2932,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2702,7 +2940,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2710,7 +2948,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2718,7 +2956,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2726,7 +2964,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2734,7 +2972,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2742,7 +2980,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2750,7 +2988,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2758,7 +2996,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2766,7 +3004,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2774,7 +3012,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2782,7 +3020,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2790,7 +3028,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2798,7 +3036,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2806,7 +3044,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2814,7 +3052,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2822,7 +3060,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2830,7 +3068,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2838,7 +3076,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2846,7 +3084,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2854,7 +3092,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2862,7 +3100,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2870,7 +3108,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2878,7 +3116,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2886,7 +3124,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2894,7 +3132,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2902,7 +3140,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2910,7 +3148,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2918,7 +3156,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2926,7 +3164,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2934,7 +3172,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2942,7 +3180,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2950,7 +3188,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2958,7 +3196,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2966,7 +3204,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2974,7 +3212,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2982,7 +3220,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2990,7 +3228,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2998,7 +3236,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3006,34 +3244,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -3048,1303 +3286,1646 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E172"/>
+  <dimension ref="A4:F182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="2.625" style="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="132" thickTop="1">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:6" ht="132" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="56.25">
-      <c r="A7" s="18" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="93.75">
-      <c r="A8" s="20"/>
-      <c r="B8" s="14" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="14" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="131.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="14" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="75">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="19"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="18" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="37.5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="14" t="s">
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="20"/>
-      <c r="B16" s="14" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="37.5">
-      <c r="A17" s="20"/>
-      <c r="B17" s="14" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="20"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" ht="93.75">
-      <c r="A20" s="20"/>
-      <c r="B20" s="14" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" ht="56.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="14" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="131.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="14" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" ht="37.5">
-      <c r="A25" s="20"/>
-      <c r="B25" s="14" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="37.5">
-      <c r="A26" s="20"/>
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75">
-      <c r="A27" s="20"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="20"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="20"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="19"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="75">
-      <c r="A31" s="18" t="s">
+    <row r="28" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A31" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="37.5">
-      <c r="A32" s="20"/>
-      <c r="B32" s="14" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="56.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="14" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="37.5">
-      <c r="A34" s="20"/>
-      <c r="B34" s="14" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C36" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" ht="56.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="14" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="20"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="22"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="22"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="22"/>
+      <c r="B47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="37.5">
-      <c r="A38" s="20"/>
-      <c r="B38" s="14" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="22"/>
+      <c r="B48" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" ht="37.5">
-      <c r="A39" s="20"/>
-      <c r="B39" s="14" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="22"/>
+      <c r="B49" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="19"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="20"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="22"/>
+      <c r="B52" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="22"/>
+      <c r="B53" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="22"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="22"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="22"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="22"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="22"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="22"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="22"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="22"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="22"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="22"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="22"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="22"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="22"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="22"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="22"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="20"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="3"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="D104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="D106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="D107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="D108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="D109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="D110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="D111" s="3"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="D112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="D114" s="3"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="D115" s="3"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="D116" s="3"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="D117" s="3"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="D118" s="3"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="D120" s="3"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="D121" s="3"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="D122" s="3"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="D123" s="3"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="D124" s="3"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="D125" s="3"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="D126" s="3"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="D127" s="3"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="D128" s="3"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="D129" s="3"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="D130" s="3"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="D131" s="3"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="D132" s="3"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="D133" s="3"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="D134" s="3"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="D135" s="3"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="D136" s="3"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="D137" s="3"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="D138" s="3"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="D139" s="3"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="D140" s="3"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="D141" s="3"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="D142" s="3"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="D143" s="3"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="D144" s="3"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="D145" s="3"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="D146" s="3"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="D147" s="3"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="D148" s="3"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="D149" s="3"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="D150" s="3"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="D151" s="3"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="D152" s="3"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="D153" s="3"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="D154" s="3"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="D155" s="3"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="D156" s="3"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="D157" s="3"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="D158" s="3"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="D159" s="3"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="D160" s="3"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="D161" s="3"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="D172" s="2"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E182" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A31:A50"/>
     <mergeCell ref="A14:A30"/>
+    <mergeCell ref="A51:A69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -78,16 +78,6 @@
   </si>
   <si>
     <t>コミュニティBBS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入りサイト</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -215,29 +205,6 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスとパスワードの入力欄と説明</t>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードの入力（確認用）</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カクニンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -331,22 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入りに登録しているサイトが並ぶ</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お気に入り解除</t>
     <rPh sb="1" eb="2">
       <t>キ</t>
@@ -382,22 +333,6 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォロー解除
-ブロック</t>
-    <rPh sb="4" eb="6">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォロー登録
-ブロック</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -632,22 +567,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームソフトに関する情報（発売日など）を表示</t>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ハツバイビ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コミュニティトップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -860,35 +779,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム新規登録申請完了</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム新規登録申請</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>権限</t>
     <rPh sb="0" eb="2">
       <t>ケンゲン</t>
@@ -926,6 +816,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ゲームデータ修正申請</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>管理</t>
     <rPh sb="0" eb="2">
       <t>カンリ</t>
@@ -933,36 +833,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム修正申請</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム修正申請完了</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームソフトの登録申請が完了したこと伝える。</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -1005,16 +875,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム申請履歴</t>
-    <rPh sb="3" eb="5">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1071,27 +931,586 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロック一覧</t>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請されたゲームの一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録申請の対応画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正申請の対応画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正申告</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正申告記録</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なサイトを見かけた時に不正を報告する</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の不正申告の履歴および対応状況の表示</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンコク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正申告登録</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正申告の取り消し</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンコク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミュート一覧</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックしているユーザーの一覧</t>
+    <t>ミュートしているユーザーの一覧</t>
     <rPh sb="13" eb="15">
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロック解除</t>
+    <t>ミュート解除</t>
     <rPh sb="4" eb="6">
       <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロー解除
+ミュート
+ミュート解除</t>
+    <rPh sb="4" eb="6">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロー登録
+ミュート
+ミュート解除</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りゲーム一覧</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り登録ユーザー一覧</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りに登録しているユーザーの一覧</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがお気に入りに登録しているゲームの一覧</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー詳細</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー修正</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー不正申告</t>
+    <rPh sb="4" eb="6">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー不正一覧</t>
+    <rPh sb="4" eb="6">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー不正対応</t>
+    <rPh sb="4" eb="6">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの入力欄と説明</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを入力して本登録</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンフィグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミュート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録・編集</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレーヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り登録者一覧</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがお気に入りに登録しているサイトの一覧</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトをお気に入りに登録しているユーザーの一覧</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りサイト一覧</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトに関する情報（発売日など）を表示
+修正申請や、レビューへのリンクなどもある</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハツバイビ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームデータ修正申請完了</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームデータ新規登録申請</t>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームデータ新規登録申請完了</t>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームデータ申請履歴</t>
+    <rPh sb="6" eb="8">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リレキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1248,7 +1667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,7 +1707,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,17 +1731,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1878,27 +2303,27 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
+      <c r="F7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1907,34 +2332,34 @@
     </row>
     <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="P10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="17">
+      <c r="P10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19">
         <v>42883</v>
       </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="P11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="17">
+      <c r="P11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19">
         <v>42883</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1970,23 +2395,23 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B5" s="8">
         <v>42883</v>
@@ -3290,1643 +3715,1809 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:F182"/>
+  <dimension ref="A4:G171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="132" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="132" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="93.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="131.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>18</v>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G14" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
-      <c r="B15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
-      <c r="B16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="B16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G16" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="22"/>
-      <c r="B17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
-      <c r="B20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="131.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="D26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A27" s="22"/>
-      <c r="B27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
-      <c r="B28" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="B29" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.15">
-      <c r="A31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
-      <c r="B32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
-      <c r="B33" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="11"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="22"/>
-      <c r="B34" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="22"/>
-      <c r="B35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A37" s="22"/>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="11" t="s">
+      <c r="D41" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="22"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A43" s="22"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="B43" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A44" s="22"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="23"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
-      <c r="B47" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11" t="s">
-        <v>57</v>
+      <c r="B47" s="22"/>
+      <c r="C47" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
-      <c r="B48" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11" t="s">
-        <v>53</v>
+      <c r="B48" s="22"/>
+      <c r="C48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
-      <c r="B49" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11" t="s">
-        <v>54</v>
+      <c r="B49" s="22"/>
+      <c r="C49" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
-      <c r="B52" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="11"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
-      <c r="B53" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="11"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="22"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="11"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="22"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A56" s="22"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="22"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="22"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="22"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="22"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="22"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="22"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="22"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="22"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="22"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="22"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="20"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
       <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E100" s="3"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E101" s="3"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E102" s="3"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E103" s="3"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E104" s="3"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E105" s="3"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E106" s="3"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E107" s="3"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E108" s="3"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E109" s="3"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E110" s="3"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E111" s="3"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E112" s="3"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E113" s="3"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E114" s="3"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E115" s="3"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E116" s="3"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E117" s="3"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E118" s="3"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E119" s="3"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E120" s="3"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E121" s="3"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E122" s="3"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E123" s="3"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E124" s="3"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E125" s="3"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E126" s="3"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E127" s="3"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E128" s="3"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E129" s="3"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E130" s="3"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E131" s="3"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E132" s="3"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E133" s="3"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E134" s="3"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E135" s="3"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E136" s="3"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E137" s="3"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E138" s="3"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E139" s="3"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E140" s="3"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E141" s="3"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E142" s="3"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E143" s="3"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E144" s="3"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E145" s="3"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E146" s="3"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E147" s="3"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E148" s="3"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E149" s="3"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E150" s="3"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E151" s="3"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E152" s="3"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E153" s="3"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E154" s="3"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E155" s="3"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E156" s="3"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E157" s="3"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E158" s="3"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E159" s="3"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E160" s="3"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="3"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="3"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="3"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="3"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="3"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="3"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="3"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="3"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="3"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="3"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E182" s="2"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="3"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F171" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A31:A50"/>
-    <mergeCell ref="A14:A30"/>
-    <mergeCell ref="A51:A69"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="12030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -52,16 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム取扱サイト一覧</t>
-    <rPh sb="3" eb="5">
-      <t>トリアツカイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -88,41 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイアウトの概要</t>
-    <rPh sb="6" eb="8">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能の概要</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中央にサイトのロゴ
-全体に各機能へのリンクがちりばめられている
-http://www.daibutsu-purin.com/</t>
-    <rPh sb="0" eb="2">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォロー一覧</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
@@ -140,32 +95,6 @@
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上部に連携している外部サイトのログイン画面へのリンク
-下部にメールアドレスとパスワードの入力欄</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カブ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,19 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入り解除</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォローに登録しているユーザーが並ぶ</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -341,26 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未ログインの場合のトップページ</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン状態の時のトップページ</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -427,34 +323,6 @@
   </si>
   <si>
     <t>0.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各機能へのリンク
-・ログイン
-・ユーザー新規登録
-・ゲーム一覧
-・登録サイト一覧
-・レビュー
-・コミュニティ</t>
-    <rPh sb="0" eb="3">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イチラン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -490,39 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指定したゲームソフトを取り扱っているサイトの一覧</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定したゲームソフトのレビュー一覧</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームレビュー一覧</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指定したゲームを遊んだことのある人のゲーム一覧</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -1047,35 +882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不正申告登録</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンコク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正申告の取り消し</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンコク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ミュート一覧</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
@@ -1090,37 +896,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ミュート解除</t>
-    <rPh sb="4" eb="6">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォロー解除
-ミュート
-ミュート解除</t>
-    <rPh sb="4" eb="6">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォロー登録
-ミュート
-ミュート解除</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1347,14 +1122,6 @@
   </si>
   <si>
     <t>データ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1511,6 +1278,264 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ記録登録</t>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつ買って、いつクリアしたか（またはどこまで進んでいるか）を登録する</t>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なプレイ記録</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネタバレが記載されているなど、ユーザーから不正だと指摘されたデータの一覧</t>
+    <rPh sb="5" eb="7">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのゲームまたは指定したゲームソフトのレビュー一覧</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューの詳細を表示。</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー登録画面</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー修正画面</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U002</t>
+  </si>
+  <si>
+    <t>U003</t>
+  </si>
+  <si>
+    <t>U004</t>
+  </si>
+  <si>
+    <t>U005</t>
+  </si>
+  <si>
+    <t>U006</t>
+  </si>
+  <si>
+    <t>U007</t>
+  </si>
+  <si>
+    <t>U008</t>
+  </si>
+  <si>
+    <t>U009</t>
+  </si>
+  <si>
+    <t>U010</t>
+  </si>
+  <si>
+    <t>G001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G002</t>
+  </si>
+  <si>
+    <t>G003</t>
+  </si>
+  <si>
+    <t>G004</t>
+  </si>
+  <si>
+    <t>G005</t>
+  </si>
+  <si>
+    <t>G006</t>
+  </si>
+  <si>
+    <t>G007</t>
+  </si>
+  <si>
+    <t>G008</t>
+  </si>
+  <si>
+    <t>G009</t>
+  </si>
+  <si>
+    <t>G010</t>
+  </si>
+  <si>
+    <t>G011</t>
+  </si>
+  <si>
+    <t>G012</t>
+  </si>
+  <si>
+    <t>G013</t>
+  </si>
+  <si>
+    <t>G014</t>
+  </si>
+  <si>
+    <t>G015</t>
+  </si>
+  <si>
+    <t>S001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>R001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>R004</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>R006</t>
+  </si>
+  <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>各機能へのリンク</t>
+    <rPh sb="0" eb="3">
+      <t>カクキノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1719,6 +1744,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1730,18 +1767,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2303,27 +2328,27 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
+      <c r="F7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2332,34 +2357,34 @@
     </row>
     <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="P10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19">
+      <c r="P10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23">
         <v>42883</v>
       </c>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="P11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="19">
+      <c r="P11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23">
         <v>42883</v>
       </c>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2395,23 +2420,23 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8">
         <v>42883</v>
@@ -3715,1807 +3740,1730 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:G171"/>
+  <dimension ref="A4:F166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="2.625" style="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="132" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="E29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="E30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="18"/>
+      <c r="B31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="18"/>
+      <c r="B43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="18"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="18"/>
+      <c r="B46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="18"/>
+      <c r="B48" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="49" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="18"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="93.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="131.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="E60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" ht="131.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" ht="93.75" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="F61" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="22"/>
-      <c r="B43" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="23"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F62" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="3"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="3"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F171" s="2"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="12030" activeTab="2"/>
@@ -142,22 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイムラインと各機能へのリンク
-・ゲーム一覧
-・サイト
-・コンフィグ</t>
-    <rPh sb="7" eb="8">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部連携サイトが並び、連携済みの場合はその表示と連携解除方法の説明
 、未連携の場合は連携画面へのリンク。
 一番下にメール認証登録画面へのリンク</t>
@@ -1539,12 +1523,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイムラインと各機能へのリンク</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1789,7 +1783,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1807,7 +1801,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1825,7 +1819,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1843,7 +1837,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1861,7 +1855,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1879,7 +1873,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2025,7 +2019,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2099,7 +2093,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2134,7 +2127,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2310,26 +2302,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -2355,10 +2347,10 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
+    <row r="10" spans="1:29">
       <c r="P10" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -2371,9 +2363,9 @@
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29">
       <c r="P11" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -2401,14 +2393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -2418,25 +2410,25 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8">
         <v>42883</v>
@@ -2446,7 +2438,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2454,7 +2446,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2462,7 +2454,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2470,7 +2462,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2478,7 +2470,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2486,7 +2478,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2494,7 +2486,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2502,7 +2494,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2510,7 +2502,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2518,7 +2510,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2526,7 +2518,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2534,7 +2526,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2542,7 +2534,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2550,7 +2542,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2558,7 +2550,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2566,7 +2558,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2574,7 +2566,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2582,7 +2574,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2590,7 +2582,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2598,7 +2590,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2606,7 +2598,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2614,7 +2606,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2622,7 +2614,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2630,7 +2622,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2638,7 +2630,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2646,7 +2638,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2654,7 +2646,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2662,7 +2654,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2670,7 +2662,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2678,7 +2670,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2686,7 +2678,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2694,7 +2686,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2702,7 +2694,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2710,7 +2702,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2718,7 +2710,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2726,7 +2718,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2734,7 +2726,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2742,7 +2734,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2750,7 +2742,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2758,7 +2750,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2766,7 +2758,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2774,7 +2766,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2782,7 +2774,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2790,7 +2782,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2798,7 +2790,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2806,7 +2798,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2814,7 +2806,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2822,7 +2814,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2830,7 +2822,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2838,7 +2830,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2846,7 +2838,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2854,7 +2846,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2862,7 +2854,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2870,7 +2862,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2878,7 +2870,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2886,7 +2878,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2894,7 +2886,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2902,7 +2894,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2910,7 +2902,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2918,7 +2910,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2926,7 +2918,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2934,7 +2926,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2942,7 +2934,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2950,7 +2942,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2958,7 +2950,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2966,7 +2958,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2974,7 +2966,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2982,7 +2974,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2990,7 +2982,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2998,7 +2990,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3006,7 +2998,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3014,7 +3006,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3022,7 +3014,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3030,7 +3022,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3038,7 +3030,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3046,7 +3038,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3054,7 +3046,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3062,7 +3054,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3070,7 +3062,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3078,7 +3070,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3086,7 +3078,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3094,7 +3086,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3102,7 +3094,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3110,7 +3102,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3118,7 +3110,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3126,7 +3118,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3134,7 +3126,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3142,7 +3134,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3150,7 +3142,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3158,7 +3150,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3166,7 +3158,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3174,7 +3166,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3182,7 +3174,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3190,7 +3182,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3198,7 +3190,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3206,7 +3198,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3214,7 +3206,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3222,7 +3214,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3230,7 +3222,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3238,7 +3230,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3246,7 +3238,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3254,7 +3246,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3262,7 +3254,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3270,7 +3262,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3278,7 +3270,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3286,7 +3278,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3294,7 +3286,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3302,7 +3294,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3310,7 +3302,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3318,7 +3310,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3326,7 +3318,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3334,7 +3326,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3342,7 +3334,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3350,7 +3342,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3358,7 +3350,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3366,7 +3358,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3374,7 +3366,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3382,7 +3374,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3390,7 +3382,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3398,7 +3390,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3406,7 +3398,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3414,7 +3406,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3422,7 +3414,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3430,7 +3422,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3438,7 +3430,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3446,7 +3438,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3454,7 +3446,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3462,7 +3454,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3470,7 +3462,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3478,7 +3470,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3486,7 +3478,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3494,7 +3486,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3502,7 +3494,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3510,7 +3502,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3518,7 +3510,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3526,7 +3518,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3534,7 +3526,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3542,7 +3534,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3550,7 +3542,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3558,7 +3550,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3566,7 +3558,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3574,7 +3566,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3582,7 +3574,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3590,7 +3582,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3598,7 +3590,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3606,7 +3598,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3614,7 +3606,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3622,7 +3614,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3630,7 +3622,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3638,7 +3630,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3646,7 +3638,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3654,7 +3646,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3662,7 +3654,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3670,7 +3662,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3678,7 +3670,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3686,7 +3678,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3694,34 +3686,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -3736,17 +3728,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A4:F166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
@@ -3757,43 +3749,43 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="19.5" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="19.5" thickTop="1">
       <c r="A5" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -3801,7 +3793,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3809,7 +3801,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3817,181 +3809,181 @@
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="56.25">
       <c r="A9" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="18"/>
       <c r="B10" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="93.75" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="18"/>
       <c r="B13" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="37.5">
       <c r="A14" s="18"/>
       <c r="B14" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="131.25" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="18"/>
       <c r="B16" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="37.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="18"/>
       <c r="B18" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3999,7 +3991,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -4007,255 +3999,255 @@
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="56.25">
       <c r="A21" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="37.5">
       <c r="A23" s="18"/>
       <c r="B23" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6" ht="37.5">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="37.5">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="37.5">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="37.5">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="37.5">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="37.5">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="37.5">
       <c r="A31" s="18"/>
       <c r="B31" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="37.5">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:6" ht="56.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:6" ht="37.5">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="37.5">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="18"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -4263,7 +4255,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -4271,7 +4263,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -4279,7 +4271,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -4287,7 +4279,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -4295,163 +4287,163 @@
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" ht="131.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="93.75">
       <c r="A41" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="56.25">
       <c r="A42" s="18"/>
       <c r="B42" s="15"/>
       <c r="C42" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="93.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:6" ht="56.25">
       <c r="A43" s="18"/>
       <c r="B43" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="37.5">
       <c r="A44" s="18"/>
       <c r="B44" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="18"/>
       <c r="B45" s="15"/>
       <c r="C45" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="37.5">
       <c r="A46" s="18"/>
       <c r="B46" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="37.5">
       <c r="A47" s="18"/>
       <c r="B47" s="15"/>
       <c r="C47" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="37.5">
       <c r="A48" s="18"/>
       <c r="B48" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="37.5">
       <c r="A49" s="18"/>
       <c r="B49" s="15"/>
       <c r="C49" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="19"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4459,115 +4451,115 @@
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="37.5">
       <c r="A51" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -4575,7 +4567,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -4583,57 +4575,57 @@
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="37.5">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="37.5">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -4641,7 +4633,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4649,7 +4641,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4657,7 +4649,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4665,7 +4657,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4673,7 +4665,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4681,7 +4673,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4689,7 +4681,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4697,7 +4689,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4705,7 +4697,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4713,7 +4705,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4721,7 +4713,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4729,7 +4721,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4737,7 +4729,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4745,7 +4737,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4753,7 +4745,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4761,7 +4753,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4769,7 +4761,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4777,7 +4769,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4785,7 +4777,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4793,7 +4785,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4801,7 +4793,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4809,7 +4801,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4817,7 +4809,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4825,7 +4817,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4833,7 +4825,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4841,7 +4833,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4849,7 +4841,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4857,7 +4849,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4865,7 +4857,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4873,7 +4865,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4881,7 +4873,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4889,7 +4881,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4897,7 +4889,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4905,7 +4897,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4913,7 +4905,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4921,7 +4913,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4929,7 +4921,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4937,7 +4929,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4945,7 +4937,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4953,7 +4945,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4961,7 +4953,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4969,7 +4961,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4977,7 +4969,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4985,7 +4977,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4993,7 +4985,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5001,7 +4993,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5009,7 +5001,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5017,7 +5009,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5025,7 +5017,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5033,7 +5025,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5041,7 +5033,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5049,7 +5041,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5057,7 +5049,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5065,7 +5057,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5073,7 +5065,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5081,7 +5073,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5089,7 +5081,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5097,7 +5089,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5105,7 +5097,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5113,7 +5105,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5121,7 +5113,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5129,7 +5121,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5137,7 +5129,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5145,7 +5137,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5153,7 +5145,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5161,7 +5153,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5169,7 +5161,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5177,7 +5169,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5185,7 +5177,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5193,7 +5185,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5201,7 +5193,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5209,7 +5201,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5217,7 +5209,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5225,7 +5217,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5233,7 +5225,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5241,7 +5233,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5249,7 +5241,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5257,7 +5249,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5265,7 +5257,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5273,7 +5265,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5281,7 +5273,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5289,7 +5281,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5297,7 +5289,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5305,7 +5297,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5313,7 +5305,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5321,7 +5313,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5329,7 +5321,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5337,7 +5329,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5345,7 +5337,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5353,7 +5345,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5361,7 +5353,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5369,7 +5361,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5377,7 +5369,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5385,7 +5377,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5393,7 +5385,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5401,7 +5393,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5409,7 +5401,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5417,7 +5409,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5425,7 +5417,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5433,7 +5425,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5441,7 +5433,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5449,7 +5441,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5457,7 +5449,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="12030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="140">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニティ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コミュニティユーザー一覧</t>
     <rPh sb="10" eb="12">
       <t>イチラン</t>
@@ -67,10 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニティBBS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -124,16 +116,6 @@
     <t>仮登録メール</t>
     <rPh sb="0" eb="3">
       <t>カリトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本登録</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -241,10 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -368,25 +346,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニティのBBS。
-閲覧ユーザーの投稿</t>
-    <rPh sb="12" eb="14">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームプレーヤー一覧</t>
     <rPh sb="8" eb="10">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニティトップ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -550,54 +513,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録されているサイトの一覧を表示する。
-トップから来た場合は全ゲームソフトで、ゲーム詳細からきた場合はその対象ゲームで一覧表示する</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録を行った</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>権限</t>
     <rPh sb="0" eb="2">
       <t>ケンゲン</t>
@@ -750,10 +665,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>申請されたゲームの一覧</t>
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
@@ -866,20 +777,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ミュート一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミュートしているユーザーの一覧</t>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -924,22 +821,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入りに登録しているユーザーの一覧</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーがお気に入りに登録しているゲームの一覧</t>
     <rPh sb="6" eb="7">
       <t>キ</t>
@@ -1011,10 +892,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>認証</t>
     <rPh sb="0" eb="2">
       <t>ニンショウ</t>
@@ -1064,10 +941,6 @@
   </si>
   <si>
     <t>フォロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミュート</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1369,154 +1242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U002</t>
-  </si>
-  <si>
-    <t>U003</t>
-  </si>
-  <si>
-    <t>U004</t>
-  </si>
-  <si>
-    <t>U005</t>
-  </si>
-  <si>
-    <t>U006</t>
-  </si>
-  <si>
-    <t>U007</t>
-  </si>
-  <si>
-    <t>U008</t>
-  </si>
-  <si>
-    <t>U009</t>
-  </si>
-  <si>
-    <t>U010</t>
-  </si>
-  <si>
-    <t>G001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G002</t>
-  </si>
-  <si>
-    <t>G003</t>
-  </si>
-  <si>
-    <t>G004</t>
-  </si>
-  <si>
-    <t>G005</t>
-  </si>
-  <si>
-    <t>G006</t>
-  </si>
-  <si>
-    <t>G007</t>
-  </si>
-  <si>
-    <t>G008</t>
-  </si>
-  <si>
-    <t>G009</t>
-  </si>
-  <si>
-    <t>G010</t>
-  </si>
-  <si>
-    <t>G011</t>
-  </si>
-  <si>
-    <t>G012</t>
-  </si>
-  <si>
-    <t>G013</t>
-  </si>
-  <si>
-    <t>G014</t>
-  </si>
-  <si>
-    <t>G015</t>
-  </si>
-  <si>
-    <t>S001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>R001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R002</t>
-  </si>
-  <si>
-    <t>R003</t>
-  </si>
-  <si>
-    <t>R004</t>
-  </si>
-  <si>
-    <t>R005</t>
-  </si>
-  <si>
-    <t>R006</t>
-  </si>
-  <si>
-    <t>R007</t>
-  </si>
-  <si>
-    <t>C001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
     <t>各機能へのリンク</t>
     <rPh sb="0" eb="3">
       <t>カクキノウ</t>
@@ -1530,6 +1255,291 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録を行った時に送られるメール</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証本登録</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録メール</t>
+    <rPh sb="0" eb="3">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証の仮登録</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証本登録完了</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証による登録完了</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証パスワード変更</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮パスワード変更メール</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加コミュニティ一覧</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム一覧みたいなもの</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるユーザーが参加しているコミュニティ一覧</t>
+    <rPh sb="7" eb="9">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティトップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティのトップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティのBBS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻略掲示板</t>
+    <rPh sb="0" eb="2">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑談掲示板</t>
+    <rPh sb="0" eb="2">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻略掲示板投稿</t>
+    <rPh sb="0" eb="2">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑談掲示板投稿</t>
+    <rPh sb="0" eb="2">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移ログ</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移の履歴を見て、戻りたい画面に戻れる。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このゲームをお気に入りに登録しているユーザーの一覧</t>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されているサイトの一覧を表示する。
+トップから来た場合は全ゲームソフトで、ゲーム詳細からきた場合はその対象ゲームで一覧表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1537,8 +1547,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1783,7 +1793,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1801,7 +1811,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1819,7 +1829,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1837,7 +1847,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1855,7 +1865,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1873,7 +1883,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2019,7 +2029,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2093,6 +2103,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2127,6 +2138,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2302,26 +2314,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -2347,10 +2359,10 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P10" s="22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -2363,9 +2375,9 @@
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P11" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -2393,14 +2405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -2410,25 +2422,25 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="8">
         <v>42883</v>
@@ -2438,7 +2450,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2446,7 +2458,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2454,7 +2466,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2462,7 +2474,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2470,7 +2482,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2478,7 +2490,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2486,7 +2498,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2494,7 +2506,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2502,7 +2514,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2510,7 +2522,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2518,7 +2530,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2526,7 +2538,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2534,7 +2546,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2542,7 +2554,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2550,7 +2562,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2558,7 +2570,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2566,7 +2578,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2574,7 +2586,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2582,7 +2594,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2590,7 +2602,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2598,7 +2610,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2606,7 +2618,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2614,7 +2626,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2622,7 +2634,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2630,7 +2642,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2638,7 +2650,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2646,7 +2658,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2654,7 +2666,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2662,7 +2674,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2670,7 +2682,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2678,7 +2690,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2686,7 +2698,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2694,7 +2706,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2702,7 +2714,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2710,7 +2722,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2718,7 +2730,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2726,7 +2738,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2734,7 +2746,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2742,7 +2754,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2750,7 +2762,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2758,7 +2770,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2766,7 +2778,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2774,7 +2786,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2782,7 +2794,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2790,7 +2802,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2798,7 +2810,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2806,7 +2818,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2814,7 +2826,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2822,7 +2834,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2830,7 +2842,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2838,7 +2850,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2846,7 +2858,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2854,7 +2866,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2862,7 +2874,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2870,7 +2882,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2878,7 +2890,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2886,7 +2898,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2894,7 +2906,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2902,7 +2914,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2910,7 +2922,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2918,7 +2930,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2926,7 +2938,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2934,7 +2946,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2942,7 +2954,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2950,7 +2962,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2958,7 +2970,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2966,7 +2978,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2974,7 +2986,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2982,7 +2994,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2990,7 +3002,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2998,7 +3010,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3006,7 +3018,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3014,7 +3026,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3022,7 +3034,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3030,7 +3042,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3038,7 +3050,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3046,7 +3058,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3054,7 +3066,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3062,7 +3074,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3070,7 +3082,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3078,7 +3090,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3086,7 +3098,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3094,7 +3106,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3102,7 +3114,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3110,7 +3122,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3118,7 +3130,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3126,7 +3138,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3134,7 +3146,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3142,7 +3154,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3150,7 +3162,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3158,7 +3170,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3166,7 +3178,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3174,7 +3186,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3182,7 +3194,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3190,7 +3202,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3198,7 +3210,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3206,7 +3218,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3214,7 +3226,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3222,7 +3234,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3230,7 +3242,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3238,7 +3250,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3246,7 +3258,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3254,7 +3266,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3262,7 +3274,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3270,7 +3282,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3278,7 +3290,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3286,7 +3298,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3294,7 +3306,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3302,7 +3314,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3310,7 +3322,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3318,7 +3330,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3326,7 +3338,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3334,7 +3346,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3342,7 +3354,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3350,7 +3362,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3358,7 +3370,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3366,7 +3378,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3374,7 +3386,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3382,7 +3394,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3390,7 +3402,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3398,7 +3410,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3406,7 +3418,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3414,7 +3426,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3422,7 +3434,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3430,7 +3442,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3438,7 +3450,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3446,7 +3458,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3454,7 +3466,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3462,7 +3474,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3470,7 +3482,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3478,7 +3490,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3486,7 +3498,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3494,7 +3506,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3502,7 +3514,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3510,7 +3522,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3518,7 +3530,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3526,7 +3538,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3534,7 +3546,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3542,7 +3554,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3550,7 +3562,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3558,7 +3570,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3566,7 +3578,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3574,7 +3586,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3582,7 +3594,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3590,7 +3602,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3598,7 +3610,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3606,7 +3618,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3614,7 +3626,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3622,7 +3634,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3630,7 +3642,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3638,7 +3650,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3646,7 +3658,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3654,7 +3666,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3662,7 +3674,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3670,7 +3682,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3678,7 +3690,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3686,34 +3698,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -3728,1734 +3740,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:F166"/>
+  <dimension ref="A4:E180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.625" style="1"/>
+    <col min="3" max="3" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="19.5" thickBot="1">
+    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" thickTop="1">
-      <c r="A5" s="20" t="s">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="56.25">
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
-      <c r="B13" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="37.5">
+      <c r="B13" s="18"/>
+      <c r="C13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="75">
+        <v>82</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="37.5">
+      <c r="B16" s="18"/>
+      <c r="C16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="C17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
-      <c r="B18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="B18" s="18"/>
+      <c r="C18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="56.25">
-      <c r="A21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="75">
+      <c r="C19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="37.5">
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="37.5">
+        <v>84</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="37.5">
+      <c r="C24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="37.5">
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="37.5">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="37.5">
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="37.5">
+      <c r="C29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="37.5">
+      <c r="B30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
-      <c r="B31" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="37.5">
+      <c r="B31" s="18"/>
+      <c r="C31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="56.25">
+      <c r="C32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
-      <c r="C33" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="37.5">
+      <c r="C33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="C34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="37.5">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="C35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="B36" s="18"/>
+      <c r="C36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="C37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="B38" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="C39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" ht="93.75">
-      <c r="A41" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="C40" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="56.25">
+      <c r="E40" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="56.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
-      <c r="B43" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="11" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="37.5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="18"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="37.5">
-      <c r="A46" s="18"/>
-      <c r="B46" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="37.5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="37.5">
-      <c r="A48" s="18"/>
-      <c r="B48" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="37.5">
+      <c r="E48" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="19"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" ht="37.5">
-      <c r="A51" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="C49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="18"/>
+      <c r="B50" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="18"/>
+      <c r="B51" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="B52" s="15"/>
+      <c r="C52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="B53" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="B54" s="15"/>
+      <c r="C54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="B55" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="B56" s="15"/>
+      <c r="C56" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="37.5">
+      <c r="C59" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="37.5">
+      <c r="C61" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="C62" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="1:6">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="12015" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="146">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -1543,12 +1543,57 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>パスワード再設定メール</t>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定1</t>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定2</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定完了</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1793,7 +1838,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1811,7 +1856,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1829,7 +1874,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1847,7 +1892,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1865,7 +1910,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1883,7 +1928,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2029,7 +2074,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2103,7 +2148,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2138,7 +2182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2314,19 +2357,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2359,8 +2402,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
+    <row r="10" spans="1:29">
       <c r="P10" s="22" t="s">
         <v>20</v>
       </c>
@@ -2375,7 +2418,7 @@
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29">
       <c r="P11" s="22" t="s">
         <v>21</v>
       </c>
@@ -2405,14 +2448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -2422,7 +2465,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2438,7 +2481,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2450,7 +2493,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2458,7 +2501,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2466,7 +2509,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2474,7 +2517,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2482,7 +2525,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2490,7 +2533,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2498,7 +2541,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2506,7 +2549,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2514,7 +2557,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2522,7 +2565,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2530,7 +2573,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2538,7 +2581,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2546,7 +2589,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2554,7 +2597,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2562,7 +2605,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2570,7 +2613,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2578,7 +2621,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2586,7 +2629,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2594,7 +2637,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2602,7 +2645,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2610,7 +2653,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2618,7 +2661,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2626,7 +2669,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2634,7 +2677,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2642,7 +2685,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2650,7 +2693,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2658,7 +2701,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2666,7 +2709,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2674,7 +2717,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2682,7 +2725,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2690,7 +2733,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2698,7 +2741,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2706,7 +2749,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2714,7 +2757,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2722,7 +2765,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2730,7 +2773,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2738,7 +2781,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2746,7 +2789,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2754,7 +2797,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2762,7 +2805,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2770,7 +2813,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2778,7 +2821,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2786,7 +2829,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2794,7 +2837,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2802,7 +2845,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2810,7 +2853,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2818,7 +2861,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2826,7 +2869,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2834,7 +2877,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2842,7 +2885,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2850,7 +2893,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2858,7 +2901,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2866,7 +2909,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2874,7 +2917,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2882,7 +2925,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2890,7 +2933,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2898,7 +2941,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2906,7 +2949,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2914,7 +2957,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2922,7 +2965,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2930,7 +2973,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2938,7 +2981,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2946,7 +2989,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2954,7 +2997,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2962,7 +3005,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2970,7 +3013,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2978,7 +3021,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2986,7 +3029,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2994,7 +3037,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3002,7 +3045,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3010,7 +3053,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3018,7 +3061,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3026,7 +3069,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3034,7 +3077,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3042,7 +3085,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3050,7 +3093,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3058,7 +3101,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3066,7 +3109,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3074,7 +3117,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3082,7 +3125,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3090,7 +3133,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3098,7 +3141,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3106,7 +3149,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3114,7 +3157,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3122,7 +3165,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3130,7 +3173,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3138,7 +3181,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3146,7 +3189,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3154,7 +3197,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3162,7 +3205,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3170,7 +3213,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3178,7 +3221,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3186,7 +3229,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3194,7 +3237,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3202,7 +3245,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3210,7 +3253,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3218,7 +3261,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3226,7 +3269,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3234,7 +3277,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3242,7 +3285,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3250,7 +3293,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3258,7 +3301,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3266,7 +3309,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3274,7 +3317,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3282,7 +3325,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3290,7 +3333,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3298,7 +3341,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3306,7 +3349,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3314,7 +3357,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3322,7 +3365,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3330,7 +3373,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3338,7 +3381,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3346,7 +3389,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3354,7 +3397,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3362,7 +3405,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3370,7 +3413,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3378,7 +3421,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3386,7 +3429,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3394,7 +3437,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3402,7 +3445,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3410,7 +3453,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3418,7 +3461,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3426,7 +3469,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3434,7 +3477,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3442,7 +3485,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3450,7 +3493,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3458,7 +3501,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3466,7 +3509,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3474,7 +3517,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3482,7 +3525,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3490,7 +3533,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3498,7 +3541,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3506,7 +3549,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3514,7 +3557,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3522,7 +3565,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3530,7 +3573,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3538,7 +3581,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3546,7 +3589,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3554,7 +3597,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3562,7 +3605,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3570,7 +3613,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3578,7 +3621,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3586,7 +3629,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3594,7 +3637,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3602,7 +3645,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3610,7 +3653,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3618,7 +3661,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3626,7 +3669,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3634,7 +3677,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3642,7 +3685,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3650,7 +3693,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3658,7 +3701,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3666,7 +3709,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3674,7 +3717,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3682,7 +3725,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3690,7 +3733,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3698,34 +3741,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -3740,17 +3783,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E180"/>
+  <dimension ref="A4:E184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
@@ -3760,7 +3803,7 @@
     <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +3818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="19.5" thickTop="1">
       <c r="A5" s="20"/>
       <c r="B5" s="18"/>
       <c r="C5" s="12" t="s">
@@ -3788,7 +3831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="37.5">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
@@ -3801,21 +3844,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="56.25">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -3832,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="17" t="s">
         <v>79</v>
@@ -3847,7 +3890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="37.5">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="11" t="s">
@@ -3860,7 +3903,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="11" t="s">
@@ -3873,7 +3916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="11" t="s">
@@ -3886,1486 +3929,1530 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="18"/>
-      <c r="B14" s="17" t="s">
-        <v>82</v>
-      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="11" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="18"/>
-      <c r="B15" s="17" t="s">
-        <v>83</v>
-      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="11" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="11" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="37.5">
       <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="11" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="37.5">
       <c r="A23" s="18"/>
-      <c r="B23" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="11" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="11" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="37.5">
       <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="18"/>
+      <c r="B27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="37.5">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" ht="56.25">
+      <c r="A32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B32" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="75">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="11" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="37.5">
+      <c r="A34" s="18"/>
+      <c r="B34" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="37.5">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="11" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="37.5">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="11" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="37.5">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="11" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="37.5">
       <c r="A38" s="18"/>
-      <c r="B38" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="B38" s="18"/>
       <c r="C38" s="11" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="11" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="37.5">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="11" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="37.5">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="37.5">
       <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="C42" s="11" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="37.5">
       <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="18"/>
+      <c r="C43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="56.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="37.5">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="37.5">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C46" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="11"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:5" ht="93.75" x14ac:dyDescent="0.15">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" ht="93.75">
+      <c r="A52" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E52" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="11" t="s">
+    <row r="53" spans="1:5" ht="56.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="13" t="s">
+    <row r="54" spans="1:5" ht="56.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
-      <c r="B53" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="37.5">
       <c r="A55" s="18"/>
       <c r="B55" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="18"/>
       <c r="B56" s="15"/>
       <c r="C56" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="37.5">
+      <c r="A57" s="18"/>
+      <c r="B57" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="37.5">
+      <c r="A58" s="18"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="37.5">
+      <c r="A59" s="18"/>
+      <c r="B59" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="37.5">
+      <c r="A60" s="18"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D60" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E60" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="19"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="17" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="19"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" ht="37.5">
+      <c r="A62" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="11" t="s">
+      <c r="B62" s="17"/>
+      <c r="C62" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E62" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="10"/>
+      <c r="C66" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E66" s="11"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="17"/>
+    <row r="67" spans="1:5">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="11" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="11" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E68" s="11"/>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="11"/>
       <c r="D69" s="10"/>
       <c r="E69" s="11"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="11"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
+    <row r="71" spans="1:5">
+      <c r="A71" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="17"/>
       <c r="C71" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="37.5">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="11" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C73" s="11"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C74" s="11"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="37.5">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E80" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="151">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -1586,6 +1586,62 @@
   </si>
   <si>
     <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他サイトで登録済みユーザーがメール認証を登録する</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証登録メール</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証パスワード設定</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証設定完了</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3787,19 +3843,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E184"/>
+  <dimension ref="A4:E191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
@@ -3831,7 +3887,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5">
+    <row r="6" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
@@ -3858,7 +3914,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="56.25">
+    <row r="9" spans="1:5" ht="37.5">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -3890,7 +3946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="37.5">
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="11" t="s">
@@ -3975,812 +4031,830 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18"/>
-      <c r="B18" s="17" t="s">
-        <v>82</v>
-      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="37.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="18"/>
-      <c r="B19" s="17" t="s">
-        <v>83</v>
-      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="11" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="37.5">
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" ht="37.5">
+    <row r="25" spans="1:5">
       <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="C25" s="11" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="37.5">
       <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75">
       <c r="A27" s="18"/>
-      <c r="B27" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="B27" s="18"/>
       <c r="C27" s="11" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="37.5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" s="18"/>
+      <c r="C29" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="37.5">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="56.25">
-      <c r="A32" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>89</v>
-      </c>
+    <row r="32" spans="1:5" ht="37.5">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="11" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="75">
+        <v>18</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
-      <c r="C33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="37.5">
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="18"/>
       <c r="B34" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="37.5">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="11" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="37.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="37.5">
+      <c r="B36" s="17"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="37.5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="56.25">
+      <c r="A39" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="C39" s="11" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="37.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="75">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="11" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="37.5">
       <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="C41" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="37.5">
       <c r="A42" s="18"/>
-      <c r="B42" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="B42" s="18"/>
       <c r="C42" s="11" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="37.5">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="56.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="37.5">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="37.5">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="11" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="37.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="11" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="37.5">
       <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="B47" s="18"/>
+      <c r="C47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="37.5">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="C48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="37.5">
       <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="B49" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="37.5">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="C50" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="56.25">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" ht="93.75">
-      <c r="A52" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="C51" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="37.5">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="56.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="37.5">
       <c r="A53" s="18"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="56.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="18"/>
-      <c r="B54" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="37.5">
+      <c r="B54" s="17"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="18"/>
-      <c r="B55" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="18"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="37.5">
+      <c r="B56" s="18"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="18"/>
-      <c r="B57" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="37.5">
+      <c r="B57" s="18"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="18"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="37.5">
-      <c r="A59" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" ht="93.75">
+      <c r="A59" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="B59" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="37.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="56.25">
       <c r="A60" s="18"/>
       <c r="B60" s="15"/>
       <c r="C60" s="11" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="19"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="56.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="37.5">
-      <c r="A62" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="17"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="C62" s="11" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="11" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="37.5">
       <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+      <c r="B64" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="C64" s="11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="37.5">
       <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="37.5">
       <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+      <c r="B66" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="C66" s="11" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D66" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="37.5">
+      <c r="A67" s="18"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="A68" s="19"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="11"/>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
+    <row r="69" spans="1:5" ht="37.5">
+      <c r="A69" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
+      <c r="C70" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="17"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="11" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="37.5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="11" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="10"/>
+      <c r="C73" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="10"/>
+      <c r="C74" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="11" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="37.5">
+        <v>49</v>
+      </c>
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="17"/>
       <c r="C78" s="11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="37.5">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="11"/>
       <c r="D81" s="10"/>
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="4"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="37.5">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="4"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="4"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="4"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="4"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3"/>
@@ -4822,49 +4896,49 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3"/>
@@ -5453,6 +5527,55 @@
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="151">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -219,10 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,45 +470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイト一覧</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイト絞り込み</t>
-    <rPh sb="3" eb="4">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインコンテンツや、性別指向で検索できる。ゲームソフトでの検索は今回は不可とする。</t>
-    <rPh sb="10" eb="12">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>権限</t>
     <rPh sb="0" eb="2">
       <t>ケンゲン</t>
@@ -563,22 +520,6 @@
     <t>管理</t>
     <rPh sb="0" eb="2">
       <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームソフトの登録申請が完了したこと伝える。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1113,22 +1054,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームデータ新規登録申請完了</t>
-    <rPh sb="6" eb="8">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームデータ申請履歴</t>
     <rPh sb="6" eb="8">
       <t>シンセイ</t>
@@ -1309,22 +1234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メール認証本登録完了</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メール認証による登録完了</t>
     <rPh sb="3" eb="5">
       <t>ニンショウ</t>
@@ -1506,44 +1415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録されているサイトの一覧を表示する。
-トップから来た場合は全ゲームソフトで、ゲーム詳細からきた場合はその対象ゲームで一覧表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード再設定メール</t>
     <rPh sb="5" eb="6">
       <t>サイ</t>
@@ -1554,23 +1425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード再設定1</t>
-    <rPh sb="5" eb="6">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード再設定2</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード再設定完了</t>
     <rPh sb="5" eb="8">
       <t>サイセッテイ</t>
@@ -1581,10 +1435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1641,6 +1491,133 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証登録完了</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再発行</t>
+    <rPh sb="5" eb="8">
+      <t>サイハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部認証エラー(ログイン)</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部認証エラー(新規登録)</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト一覧/検索</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されているサイトの一覧を表示する。
+トップから来た場合は全ゲームソフトで、ゲーム詳細からきた場合はその対象ゲームで一覧表示する。
+画面内で検索もできる。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2432,7 +2409,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -2461,7 +2438,7 @@
     <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
     <row r="10" spans="1:29">
       <c r="P10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -2476,7 +2453,7 @@
     </row>
     <row r="11" spans="1:29">
       <c r="P11" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -2523,23 +2500,23 @@
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8">
         <v>42883</v>
@@ -3843,10 +3820,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E191"/>
+  <dimension ref="A4:E190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
@@ -3868,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>9</v>
@@ -3878,26 +3855,26 @@
       <c r="A5" s="20"/>
       <c r="B5" s="18"/>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3916,16 +3893,16 @@
     </row>
     <row r="9" spans="1:5" ht="37.5">
       <c r="A9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>10</v>
@@ -3934,16 +3911,16 @@
     <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3953,36 +3930,36 @@
         <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="11" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="11" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3992,7 +3969,7 @@
         <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -4000,10 +3977,10 @@
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -4014,7 +3991,7 @@
         <v>142</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -4022,10 +3999,10 @@
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -4033,53 +4010,61 @@
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5">
@@ -4099,41 +4084,41 @@
     <row r="25" spans="1:5">
       <c r="A25" s="18"/>
       <c r="B25" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="37.5">
       <c r="A26" s="18"/>
       <c r="B26" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="75">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>13</v>
@@ -4143,36 +4128,36 @@
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="37.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E30" s="11"/>
     </row>
@@ -4180,21 +4165,21 @@
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="37.5">
+    <row r="32" spans="1:5">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="11"/>
     </row>
@@ -4208,13 +4193,13 @@
     <row r="34" spans="1:5">
       <c r="A34" s="18"/>
       <c r="B34" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>14</v>
@@ -4227,7 +4212,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>15</v>
@@ -4254,212 +4239,206 @@
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" ht="56.25">
+    <row r="39" spans="1:5" ht="37.5">
       <c r="A39" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="37.5">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="37.5">
       <c r="A41" s="18"/>
       <c r="B41" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="37.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="37.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="37.5">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="37.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="11" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="37.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="37.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="C48" s="11" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="37.5">
       <c r="A49" s="18"/>
-      <c r="B49" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="B49" s="18"/>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="37.5">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="56.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="11" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="37.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="37.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>137</v>
-      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="18"/>
-      <c r="B54" s="17"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="11"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
@@ -4485,208 +4464,206 @@
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" ht="93.75">
-      <c r="A59" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="11" t="s">
+    <row r="58" spans="1:5" ht="75">
+      <c r="A58" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="56.25">
+      <c r="E58" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="18"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" ht="37.5">
       <c r="A60" s="18"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="C60" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="56.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="18"/>
       <c r="B61" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="18"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="11" t="s">
+      <c r="D62" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="37.5">
-      <c r="A62" s="18"/>
-      <c r="B62" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="18"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="C63" s="11" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="37.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="18"/>
-      <c r="B64" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="B64" s="15"/>
       <c r="C64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="18"/>
+      <c r="B65" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="18"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="19"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="37.5">
-      <c r="A65" s="18"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="37.5">
-      <c r="A66" s="18"/>
-      <c r="B66" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="37.5">
-      <c r="A67" s="18"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="19"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" ht="37.5">
-      <c r="A69" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="17"/>
+      <c r="D68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>111</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>45</v>
@@ -4697,22 +4674,18 @@
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5">
@@ -4723,39 +4696,39 @@
       <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" s="17"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="37.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="18"/>
@@ -4767,94 +4740,94 @@
     <row r="81" spans="1:5">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
+      <c r="C81" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="11" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="37.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="11" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3"/>
@@ -4938,7 +4911,7 @@
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3"/>
@@ -5569,13 +5542,6 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="12015" activeTab="2"/>
@@ -1625,8 +1625,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1871,7 +1871,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1889,7 +1889,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1907,7 +1907,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1925,7 +1925,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1943,7 +1943,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1961,7 +1961,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2107,7 +2107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2181,6 +2181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2215,6 +2216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2390,19 +2392,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2435,8 +2437,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P10" s="22" t="s">
         <v>19</v>
       </c>
@@ -2451,7 +2453,7 @@
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P11" s="22" t="s">
         <v>20</v>
       </c>
@@ -2481,14 +2483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -2498,7 +2500,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2514,7 +2516,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2528,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2534,7 +2536,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2542,7 +2544,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2550,7 +2552,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2558,7 +2560,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2566,7 +2568,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2574,7 +2576,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2582,7 +2584,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2590,7 +2592,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2598,7 +2600,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2606,7 +2608,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2614,7 +2616,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2622,7 +2624,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2630,7 +2632,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2638,7 +2640,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2646,7 +2648,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2654,7 +2656,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2662,7 +2664,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2670,7 +2672,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2678,7 +2680,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2686,7 +2688,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2694,7 +2696,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2702,7 +2704,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2710,7 +2712,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2718,7 +2720,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2726,7 +2728,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2734,7 +2736,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2742,7 +2744,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2750,7 +2752,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2758,7 +2760,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2766,7 +2768,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2774,7 +2776,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2782,7 +2784,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2790,7 +2792,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2798,7 +2800,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2806,7 +2808,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2814,7 +2816,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2822,7 +2824,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2830,7 +2832,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2838,7 +2840,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2846,7 +2848,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2854,7 +2856,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2862,7 +2864,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2870,7 +2872,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2878,7 +2880,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2886,7 +2888,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2894,7 +2896,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2902,7 +2904,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2910,7 +2912,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2918,7 +2920,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2926,7 +2928,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2934,7 +2936,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2942,7 +2944,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2950,7 +2952,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2958,7 +2960,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2966,7 +2968,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2974,7 +2976,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2982,7 +2984,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2990,7 +2992,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2998,7 +3000,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3006,7 +3008,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3014,7 +3016,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3022,7 +3024,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3030,7 +3032,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3038,7 +3040,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3046,7 +3048,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3054,7 +3056,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3062,7 +3064,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3070,7 +3072,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3078,7 +3080,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3086,7 +3088,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3094,7 +3096,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3102,7 +3104,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3110,7 +3112,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3118,7 +3120,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3126,7 +3128,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3134,7 +3136,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3142,7 +3144,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3150,7 +3152,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3158,7 +3160,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3166,7 +3168,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3174,7 +3176,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3182,7 +3184,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3190,7 +3192,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3198,7 +3200,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3206,7 +3208,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3214,7 +3216,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3222,7 +3224,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3230,7 +3232,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3238,7 +3240,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3246,7 +3248,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3254,7 +3256,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3262,7 +3264,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3270,7 +3272,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3278,7 +3280,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3286,7 +3288,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3294,7 +3296,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3302,7 +3304,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3310,7 +3312,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3318,7 +3320,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3326,7 +3328,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3334,7 +3336,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3342,7 +3344,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3350,7 +3352,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3358,7 +3360,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3366,7 +3368,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3374,7 +3376,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3382,7 +3384,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3390,7 +3392,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3398,7 +3400,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3406,7 +3408,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3414,7 +3416,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3422,7 +3424,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3430,7 +3432,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3438,7 +3440,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3446,7 +3448,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3454,7 +3456,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3462,7 +3464,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3470,7 +3472,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3478,7 +3480,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3486,7 +3488,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3494,7 +3496,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3502,7 +3504,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3510,7 +3512,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3518,7 +3520,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3526,7 +3528,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3534,7 +3536,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3542,7 +3544,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3550,7 +3552,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3558,7 +3560,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3566,7 +3568,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3574,7 +3576,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3582,7 +3584,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3590,7 +3592,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3598,7 +3600,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3606,7 +3608,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3614,7 +3616,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3622,7 +3624,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3630,7 +3632,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3638,7 +3640,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3646,7 +3648,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3654,7 +3656,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3662,7 +3664,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3670,7 +3672,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3678,7 +3680,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3686,7 +3688,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3694,7 +3696,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3702,7 +3704,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3710,7 +3712,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3718,7 +3720,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3726,7 +3728,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3734,7 +3736,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3742,7 +3744,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3750,7 +3752,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3758,7 +3760,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3766,7 +3768,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3774,34 +3776,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -3816,17 +3818,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E190"/>
+  <dimension ref="A4:E188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
@@ -3836,7 +3838,7 @@
     <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" thickTop="1">
+    <row r="5" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="18"/>
       <c r="C5" s="12" t="s">
@@ -3864,7 +3866,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
@@ -3877,21 +3879,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="37.5">
+    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="17" t="s">
         <v>74</v>
@@ -3923,7 +3925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="11" t="s">
@@ -3936,7 +3938,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="11" t="s">
@@ -3949,7 +3951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="11" t="s">
@@ -3962,7 +3964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="11" t="s">
@@ -3973,7 +3975,7 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="11" t="s">
@@ -3984,7 +3986,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="11" t="s">
@@ -3995,7 +3997,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
@@ -4006,7 +4008,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="11" t="s">
@@ -4019,7 +4021,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="11" t="s">
@@ -4032,7 +4034,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
@@ -4045,7 +4047,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="11" t="s">
@@ -4056,7 +4058,7 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="11" t="s">
@@ -4067,21 +4069,21 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="17" t="s">
         <v>77</v>
@@ -4096,7 +4098,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="37.5">
+    <row r="26" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="17" t="s">
         <v>78</v>
@@ -4111,7 +4113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="11" t="s">
@@ -4124,7 +4126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
@@ -4137,7 +4139,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="11" t="s">
@@ -4150,7 +4152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="11" t="s">
@@ -4161,7 +4163,7 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="11" t="s">
@@ -4172,7 +4174,7 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="11" t="s">
@@ -4183,14 +4185,14 @@
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="B34" s="17" t="s">
         <v>79</v>
@@ -4205,7 +4207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="37.5">
+    <row r="35" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="11" t="s">
@@ -4218,556 +4220,568 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="18"/>
-      <c r="B36" s="17"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" ht="37.5">
-      <c r="A39" s="17" t="s">
+    <row r="37" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="B37" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="18"/>
       <c r="B39" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="37.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="11" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="37.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
-      <c r="B41" s="17" t="s">
-        <v>83</v>
-      </c>
+      <c r="B41" s="18"/>
       <c r="C41" s="11" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="11" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="11" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="C46" s="11" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="11" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
-      <c r="B48" s="17" t="s">
-        <v>85</v>
-      </c>
+      <c r="B48" s="18"/>
       <c r="C48" s="11" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="37.5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="11" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="37.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="11" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="B51" s="17"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
-      <c r="C52" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="C52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
-      <c r="B53" s="17"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="11"/>
       <c r="D53" s="10"/>
       <c r="E53" s="11"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="11"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="11"/>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5">
+    <row r="56" spans="1:5" ht="75" x14ac:dyDescent="0.15">
+      <c r="A56" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="11"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:5" ht="75">
-      <c r="A58" s="17" t="s">
-        <v>16</v>
-      </c>
+    <row r="58" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="18"/>
       <c r="B58" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" ht="37.5">
+      <c r="B59" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="18"/>
-      <c r="B60" s="13" t="s">
-        <v>87</v>
-      </c>
+      <c r="B60" s="15"/>
       <c r="C60" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
       <c r="B61" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
       <c r="B62" s="15"/>
       <c r="C62" s="11" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
       <c r="B63" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="18"/>
       <c r="B64" s="15"/>
       <c r="C64" s="11" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="18"/>
-      <c r="B65" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="18"/>
-      <c r="B66" s="15"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="17"/>
       <c r="C66" s="11" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="19"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="17"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="C76" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="C78" s="11"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="C79" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="C80" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="11" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>17</v>
@@ -4776,11 +4790,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>17</v>
@@ -4789,759 +4803,733 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -87,28 +87,6 @@
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連携している各外部サイトへのリンクと、メールログイン用のメアド＆パスワード入力欄</t>
-    <rPh sb="0" eb="2">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -353,16 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン方法設定</t>
-    <rPh sb="4" eb="6">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーの各種設定画面へのリンク
 ・ログイン方法設定</t>
     <rPh sb="5" eb="7">
@@ -383,13 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイト登録</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイト詳細</t>
     <rPh sb="3" eb="5">
       <t>ショウサイ</t>
@@ -507,16 +468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームデータ修正申請</t>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理</t>
     <rPh sb="0" eb="2">
       <t>カンリ</t>
@@ -524,16 +475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームソフトの登録を申請する。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修正申請が完了したことを伝える。</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -570,16 +511,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームデータ申請一覧</t>
-    <rPh sb="6" eb="8">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームデータ申請対応(登録)</t>
     <rPh sb="6" eb="8">
       <t>シンセイ</t>
@@ -651,29 +582,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不正申告</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正申告記録</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンコク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不正なサイトを見かけた時に不正を報告する</t>
     <rPh sb="0" eb="2">
       <t>フセイ</t>
@@ -799,36 +707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー不正申告</t>
-    <rPh sb="4" eb="6">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー不正一覧</t>
-    <rPh sb="4" eb="6">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー不正対応</t>
-    <rPh sb="4" eb="6">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -856,19 +734,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードを入力して本登録</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1028,42 +893,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームデータ修正申請完了</t>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームデータ新規登録申請</t>
-    <rPh sb="6" eb="8">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームデータ申請履歴</t>
-    <rPh sb="6" eb="8">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイ記録登録</t>
     <rPh sb="3" eb="5">
       <t>キロク</t>
@@ -1184,42 +1013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー登録を行った時に送られるメール</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール認証本登録</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮登録メール</t>
-    <rPh sb="0" eb="3">
-      <t>カリトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1234,39 +1027,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メール認証による登録完了</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール認証パスワード変更</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮パスワード変更メール</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コミュニティ一覧</t>
     <rPh sb="6" eb="8">
       <t>イチラン</t>
@@ -1313,10 +1073,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニティのBBS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻略掲示板</t>
     <rPh sb="0" eb="2">
       <t>コウリャク</t>
@@ -1439,39 +1195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他サイトで登録済みユーザーがメール認証を登録する</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール認証登録メール</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メール認証パスワード設定</t>
     <rPh sb="3" eb="5">
       <t>ニンショウ</t>
@@ -1482,19 +1205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メール認証設定完了</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メール認証登録完了</t>
     <rPh sb="3" eb="5">
       <t>ニンショウ</t>
@@ -1515,17 +1225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード入力</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部認証エラー(ログイン)</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -1533,10 +1232,6 @@
     <rPh sb="2" eb="4">
       <t>ニンショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1618,6 +1313,851 @@
     </rPh>
     <rPh sb="71" eb="73">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正レビュー申告</t>
+    <rPh sb="6" eb="8">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正レビュー一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正レビュー対応</t>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正サイト申告</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正サイト申告記録</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンコク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム選択</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの攻略掲示板</t>
+    <rPh sb="7" eb="9">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの攻略掲示板投稿</t>
+    <rPh sb="7" eb="9">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの雑談掲示板</t>
+    <rPh sb="7" eb="9">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの雑談掲示板投稿画面</t>
+    <rPh sb="7" eb="9">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻略掲示板不正投稿申告</t>
+    <rPh sb="0" eb="2">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑談掲示板不正投稿申告</t>
+    <rPh sb="0" eb="2">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム修正申請</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム修正申請完了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム新規登録申請</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム申請履歴</t>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム申請一覧</t>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム修正申請詳細</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム修正Fork申請</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の人の申請をForkして申請できる。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこがどう修正されたかをみられる画面。</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム修正申請一覧</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム修正申請対応</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正申請に対応する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトの新規登録を申請する。</t>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム新規登録申請完了</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム新規登録申請一覧</t>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム新規登録申請詳細</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム新規登録申請対応</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録申請に対応する。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録申請されているデータの一覧。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録申請が完了したことを伝える。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正申請されているデータの一覧。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どういうデータが申請されているか見られる画面。</t>
+    <rPh sb="8" eb="10">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム新規登録申請追記</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の申請に追記できる。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再発行用にメールアドレスを入力する</t>
+    <rPh sb="5" eb="8">
+      <t>サイハッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定用画面へのリンク</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定入力</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再設定するパスワードを入力</t>
+    <rPh sb="0" eb="3">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの再設定が完了しました画面</t>
+    <rPh sb="6" eb="9">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録完了</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイトを利用した新規登録が完了したことを説明</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証でのユーザー登録を行う時に送られるメール。
+メール認証用のパスワード設定画面へのリンクが書かれている。</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイト側の認証画面でキャンセルするなどした場合のエラーを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連携している各外部サイトへのリンクと、メール認証の入力が行える</t>
+    <rPh sb="0" eb="2">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証のパスワードを入力してもらう</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証による登録が完了したことを表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール(他ユーザー)</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分自身のプロフィールを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分以外のユーザーのプロフィールを表示する。自分用と比べていくつか表示項目が異なる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジブンヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開範囲設定</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーコンフィグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部認証エラー(追加登録)</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証登録メール</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証登録完了</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証パスワード入力</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト新規登録</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2411,7 +2951,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -2440,7 +2980,7 @@
     <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P10" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -2455,7 +2995,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="P11" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -2502,23 +3042,23 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8">
         <v>42883</v>
@@ -3822,10 +4362,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E188"/>
+  <dimension ref="A4:E211"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3834,7 +4374,7 @@
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
@@ -3847,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>9</v>
@@ -3857,26 +4397,26 @@
       <c r="A5" s="20"/>
       <c r="B5" s="18"/>
       <c r="C5" s="12" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3893,180 +4433,180 @@
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="11" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="11" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="11" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="11" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="11" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="11" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="11" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>145</v>
-      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>147</v>
-      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -4078,372 +4618,386 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
-      <c r="B25" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="B25" s="18"/>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
-      <c r="B26" s="17" t="s">
-        <v>78</v>
-      </c>
+      <c r="B26" s="19"/>
       <c r="C26" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>112</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>76</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>111</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="11" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="11" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
-      <c r="B34" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="B34" s="18"/>
       <c r="C34" s="11" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="11" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="C38" s="11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
-      <c r="B39" s="17" t="s">
-        <v>83</v>
-      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="11" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="C41" s="11" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="11" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="C43" s="11" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="11" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="11" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
-      <c r="B46" s="17" t="s">
-        <v>85</v>
-      </c>
+      <c r="B46" s="18"/>
       <c r="C46" s="11" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="11" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="11" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="11" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="11" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
+      <c r="C52" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
+      <c r="C54" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
@@ -4452,608 +5006,680 @@
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A56" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>150</v>
-      </c>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="18"/>
+      <c r="C57" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
-      <c r="B58" s="13" t="s">
-        <v>87</v>
-      </c>
+      <c r="B58" s="18"/>
       <c r="C58" s="11" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
-      <c r="B59" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="B59" s="18"/>
       <c r="C59" s="11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="18"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D62" s="10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
-      <c r="B63" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="B63" s="18"/>
       <c r="C63" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="18"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="11" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="19"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="A66" s="18"/>
       <c r="B66" s="17"/>
-      <c r="C66" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
-      <c r="C70" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.15">
+      <c r="A71" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="C71" s="11" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E71" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="11"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="17"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="C75" s="11" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="11" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
+      <c r="B77" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
+      <c r="B79" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="C79" s="11" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="11" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>123</v>
-      </c>
+      <c r="A81" s="19"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="17"/>
       <c r="C82" s="11" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="11" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="11"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="11"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
@@ -5530,6 +6156,167 @@
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="12015" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="206">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -365,62 +365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイトの登録を行う。現状と違い、審査なしで登録できる。</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シンサ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイト登録者専用画面。サイトの詳細だけでなく、アクセス数やいいね数、いいねした人の一覧を見られる。</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイトの編集を行う。</t>
     <rPh sb="4" eb="6">
       <t>ヘンシュウ</t>
@@ -582,50 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不正なサイトを見かけた時に不正を報告する</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去の不正申告の履歴および対応状況の表示</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンコク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -693,13 +593,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー登録</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー修正</t>
     <rPh sb="4" eb="6">
       <t>シュウセイ</t>
@@ -799,13 +692,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お気に入り登録者一覧</t>
     <rPh sb="1" eb="2">
       <t>キ</t>
@@ -820,38 +706,6 @@
       <t>シャ</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーがお気に入りに登録しているサイトの一覧</t>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイトをお気に入りに登録しているユーザーの一覧</t>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -962,16 +816,6 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューの詳細を表示。</t>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1764,19 +1608,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>どういうデータが申請されているか見られる画面。</t>
-    <rPh sb="8" eb="10">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム新規登録申請追記</t>
     <rPh sb="3" eb="5">
       <t>シンキ</t>
@@ -1788,19 +1619,6 @@
       <t>シンセイ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他の申請に追記できる。</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
       <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2161,12 +1979,410 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>他の申請に追記する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どういうデータが申請されているか見られる</t>
+    <rPh sb="8" eb="10">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトの登録を行う。旧バージョンと違い、審査なしで登録できる。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なサイトを見かけた時に不正を報告する。</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト詳細(他ユーザー)</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のユーザーが登録したサイトの詳細情報を表示する。
+イイネした人の一覧など、一部は表示しない。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー本人が登録したサイトの詳細情報を表示する。
+アクセス数やいいね数、いいねした人の一覧などを表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訪問者記録</t>
+    <rPh sb="0" eb="3">
+      <t>ホウモンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトにアクセスした人の記録を表示する。
+サイト登録者本人のみ閲覧可能。</t>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト訪問記録</t>
+    <rPh sb="3" eb="5">
+      <t>ホウモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身が申告した履歴および対応状況を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンコク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身がお気に入りに登録しているサイトの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身が登録しているサイトをお気に入りに登録しているユーザーの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身が登録しているサイトの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身が今まで訪問したサイトの記録を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウモン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねしたログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねされたログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー投稿</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー詳細(他ユーザー)</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身が投稿したレビューの詳細を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他ユーザーが投稿したレビューの詳細を表示する。
+表示する項目が自身が投稿したレビューの詳細画面より少ない。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿したレビュー一覧</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2411,7 +2627,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2429,7 +2645,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2447,7 +2663,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2465,7 +2681,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2483,7 +2699,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2501,7 +2717,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2647,7 +2863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2721,7 +2937,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2756,7 +2971,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2932,19 +3146,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2977,8 +3191,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
+    <row r="10" spans="1:29">
       <c r="P10" s="22" t="s">
         <v>18</v>
       </c>
@@ -2993,7 +3207,7 @@
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29">
       <c r="P11" s="22" t="s">
         <v>19</v>
       </c>
@@ -3023,14 +3237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -3040,7 +3254,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +3270,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -3068,7 +3282,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3076,7 +3290,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3084,7 +3298,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3092,7 +3306,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3100,7 +3314,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3108,7 +3322,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3116,7 +3330,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3124,7 +3338,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3132,7 +3346,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3140,7 +3354,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3148,7 +3362,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3156,7 +3370,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3164,7 +3378,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3172,7 +3386,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3180,7 +3394,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3188,7 +3402,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3196,7 +3410,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3204,7 +3418,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3212,7 +3426,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3220,7 +3434,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3228,7 +3442,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3236,7 +3450,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3244,7 +3458,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3252,7 +3466,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3260,7 +3474,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3268,7 +3482,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3276,7 +3490,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3284,7 +3498,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3292,7 +3506,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3300,7 +3514,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3308,7 +3522,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3316,7 +3530,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3324,7 +3538,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3332,7 +3546,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3340,7 +3554,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3348,7 +3562,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3356,7 +3570,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3364,7 +3578,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3372,7 +3586,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3380,7 +3594,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3388,7 +3602,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3396,7 +3610,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3404,7 +3618,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3412,7 +3626,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3420,7 +3634,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3428,7 +3642,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3436,7 +3650,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3444,7 +3658,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3452,7 +3666,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3460,7 +3674,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3468,7 +3682,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3476,7 +3690,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3484,7 +3698,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3492,7 +3706,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3500,7 +3714,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3508,7 +3722,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3516,7 +3730,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3524,7 +3738,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3532,7 +3746,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3540,7 +3754,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3548,7 +3762,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3556,7 +3770,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3564,7 +3778,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3572,7 +3786,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3580,7 +3794,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3588,7 +3802,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3596,7 +3810,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3604,7 +3818,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3612,7 +3826,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3620,7 +3834,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3628,7 +3842,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3636,7 +3850,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3644,7 +3858,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3652,7 +3866,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3660,7 +3874,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3668,7 +3882,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3676,7 +3890,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3684,7 +3898,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3692,7 +3906,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3700,7 +3914,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3708,7 +3922,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3716,7 +3930,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3724,7 +3938,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3732,7 +3946,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3740,7 +3954,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3748,7 +3962,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3756,7 +3970,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3764,7 +3978,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3772,7 +3986,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3780,7 +3994,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3788,7 +4002,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3796,7 +4010,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3804,7 +4018,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3812,7 +4026,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3820,7 +4034,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3828,7 +4042,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3836,7 +4050,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3844,7 +4058,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3852,7 +4066,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3860,7 +4074,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3868,7 +4082,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3876,7 +4090,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3884,7 +4098,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3892,7 +4106,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3900,7 +4114,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3908,7 +4122,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3916,7 +4130,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3924,7 +4138,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3932,7 +4146,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3940,7 +4154,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3948,7 +4162,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3956,7 +4170,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3964,7 +4178,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3972,7 +4186,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3980,7 +4194,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3988,7 +4202,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3996,7 +4210,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4004,7 +4218,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4012,7 +4226,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4020,7 +4234,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4028,7 +4242,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4036,7 +4250,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4044,7 +4258,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4052,7 +4266,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4060,7 +4274,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4068,7 +4282,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4076,7 +4290,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4084,7 +4298,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4092,7 +4306,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4100,7 +4314,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4108,7 +4322,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4116,7 +4330,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4124,7 +4338,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4132,7 +4346,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4140,7 +4354,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4148,7 +4362,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4156,7 +4370,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4164,7 +4378,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4172,7 +4386,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4180,7 +4394,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4188,7 +4402,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4196,7 +4410,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4204,7 +4418,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4212,7 +4426,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4220,7 +4434,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4228,7 +4442,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4236,7 +4450,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4244,7 +4458,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4252,7 +4466,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4260,7 +4474,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4268,7 +4482,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4276,7 +4490,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4284,7 +4498,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4292,7 +4506,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4300,7 +4514,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4308,7 +4522,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4316,34 +4530,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -4358,17 +4572,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E211"/>
+  <dimension ref="A4:E216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
@@ -4378,7 +4592,7 @@
     <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -4387,1936 +4601,2011 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="19.5" thickTop="1">
       <c r="A5" s="20"/>
       <c r="B5" s="18"/>
       <c r="C5" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="37.5">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="18"/>
       <c r="B24" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="11" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="37.5">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="11" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="37.5">
       <c r="A27" s="18"/>
       <c r="B27" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="56.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="11" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="11" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="11" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="11" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="11" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="18"/>
       <c r="B38" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="11"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="37.5">
       <c r="A41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="37.5">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="18"/>
       <c r="B43" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="11" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="11" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="11" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="11" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="11" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
+      <c r="B59" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="C59" s="11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="11" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="18"/>
-      <c r="B61" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="B61" s="18"/>
       <c r="C61" s="11" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="11" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="11" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="17"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="18"/>
-      <c r="B66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="11"/>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="11"/>
       <c r="D67" s="10"/>
       <c r="E67" s="11"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="11"/>
       <c r="D68" s="10"/>
       <c r="E68" s="11"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="75">
+      <c r="A69" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="37.5">
       <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A71" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="37.5">
+      <c r="A71" s="18"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="11" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="37.5">
       <c r="A72" s="18"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="C72" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="18"/>
-      <c r="B73" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="B73" s="14"/>
       <c r="C73" s="11" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="18"/>
-      <c r="B74" s="13"/>
+      <c r="B74" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="C74" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="18"/>
-      <c r="B75" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="B75" s="15"/>
       <c r="C75" s="11" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="18"/>
       <c r="B76" s="15"/>
       <c r="C76" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="18"/>
       <c r="B77" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="18"/>
       <c r="B78" s="15"/>
       <c r="C78" s="11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="18"/>
       <c r="B79" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="18"/>
       <c r="B80" s="15"/>
       <c r="C80" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="19"/>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
       <c r="D81" s="10"/>
       <c r="E81" s="11"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5">
       <c r="A82" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="C82" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="37.5">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="11" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="11" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="11" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="11" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E88" s="11"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="10"/>
+      <c r="C89" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="E89" s="11"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="10"/>
+      <c r="C90" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="E90" s="11"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" s="17"/>
+    <row r="91" spans="1:5">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="11" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="11" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
-      <c r="C93" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C93" s="11"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
-      <c r="C94" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C94" s="11"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="17"/>
       <c r="C96" s="11" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="11" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="11" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="11" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B102" s="17"/>
+      <c r="C101" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C103" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C104" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="10"/>
+      <c r="C105" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="11"/>
       <c r="D106" s="10"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="10"/>
+    <row r="107" spans="1:5">
+      <c r="A107" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="19"/>
-      <c r="B108" s="19"/>
+    <row r="108" spans="1:5">
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="11"/>
       <c r="D108" s="10"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5">
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="12015" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="261">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -102,101 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外部連携サイトが並び、連携済みの場合はその表示と連携解除方法の説明
-、未連携の場合は連携画面へのリンク。
-一番下にメール認証登録画面へのリンク</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォローに登録しているユーザーが並ぶ</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分をフォローしているユーザーで、通知OK設定にしているユーザーが並ぶ</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -262,64 +167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームソフトが並ぶ
-遷移元によって、ゲームを選んだ際の遷移先画面が変わる</t>
-    <rPh sb="7" eb="8">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定したゲームを遊んだことのある人のゲーム一覧</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニティに参加しているユーザー一覧</t>
-    <rPh sb="7" eb="9">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームプレーヤー一覧</t>
     <rPh sb="8" eb="10">
       <t>イチラン</t>
@@ -331,26 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーの各種設定画面へのリンク
-・ログイン方法設定</t>
-    <rPh sb="5" eb="7">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイト詳細</t>
     <rPh sb="3" eb="5">
       <t>ショウサイ</t>
@@ -439,22 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録または修正申請のログと対応のステータス</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームデータ申請対応(登録)</t>
     <rPh sb="6" eb="8">
       <t>シンセイ</t>
@@ -481,51 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>申請されたゲームの一覧</t>
-    <rPh sb="0" eb="2">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録申請の対応画面</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正申請の対応画面</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,22 +336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーがお気に入りに登録しているゲームの一覧</t>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー詳細</t>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
@@ -604,94 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>認証</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスの入力欄と説明</t>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンフィグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録・編集</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入り</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申請</t>
-    <rPh sb="0" eb="2">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレーヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お気に入り登録者一覧</t>
     <rPh sb="1" eb="2">
       <t>キ</t>
@@ -724,56 +386,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームソフトに関する情報（発売日など）を表示
-修正申請や、レビューへのリンクなどもある</t>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ハツバイビ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイ記録登録</t>
-    <rPh sb="3" eb="5">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いつ買って、いつクリアしたか（またはどこまで進んでいるか）を登録する</t>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理</t>
     <rPh sb="0" eb="2">
       <t>カンリ</t>
@@ -781,93 +397,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不正なプレイ記録</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネタバレが記載されているなど、ユーザーから不正だと指摘されたデータの一覧</t>
-    <rPh sb="5" eb="7">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全てのゲームまたは指定したゲームソフトのレビュー一覧</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー登録画面</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー修正画面</t>
-    <rPh sb="4" eb="6">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各機能へのリンク</t>
-    <rPh sb="0" eb="3">
-      <t>カクキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムラインと各機能へのリンク</t>
-    <rPh sb="7" eb="8">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール認証の仮登録</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カリトウロク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -888,23 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム一覧みたいなもの</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あるユーザーが参加しているコミュニティ一覧</t>
-    <rPh sb="7" eb="9">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コミュニティトップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -917,52 +430,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻略掲示板</t>
+    <t>攻略掲示板投稿</t>
     <rPh sb="0" eb="2">
       <t>コウリャク</t>
     </rPh>
     <rPh sb="2" eb="5">
       <t>ケイジバン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑談掲示板</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑談掲示板投稿</t>
     <rPh sb="0" eb="2">
       <t>ザツダン</t>
     </rPh>
     <rPh sb="2" eb="5">
       <t>ケイジバン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻略掲示板投稿</t>
-    <rPh sb="0" eb="2">
-      <t>コウリャク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイジバン</t>
-    </rPh>
     <rPh sb="5" eb="7">
       <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>雑談掲示板投稿</t>
-    <rPh sb="0" eb="2">
-      <t>ザツダン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遷移ログ</t>
     <rPh sb="0" eb="2">
       <t>センイ</t>
@@ -991,22 +484,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このゲームをお気に入りに登録しているユーザーの一覧</t>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1062,13 +539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード再発行</t>
-    <rPh sb="5" eb="8">
-      <t>サイハッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部認証エラー(ログイン)</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -1205,13 +675,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その他</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム選択</t>
     <rPh sb="3" eb="5">
       <t>センタク</t>
@@ -1219,59 +682,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニティの攻略掲示板</t>
-    <rPh sb="7" eb="9">
-      <t>コウリャク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケイジバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニティの攻略掲示板投稿</t>
-    <rPh sb="7" eb="9">
-      <t>コウリャク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニティの雑談掲示板</t>
-    <rPh sb="7" eb="9">
-      <t>ザツダン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケイジバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニティの雑談掲示板投稿画面</t>
-    <rPh sb="7" eb="9">
-      <t>ザツダン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻略掲示板不正投稿申告</t>
     <rPh sb="0" eb="2">
       <t>コウリャク</t>
@@ -1417,16 +827,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>どこがどう修正されたかをみられる画面。</t>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム修正申請一覧</t>
     <rPh sb="3" eb="5">
       <t>シュウセイ</t>
@@ -1560,7 +960,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録申請されているデータの一覧。</t>
+    <t>新規登録申請が完了したことを伝える。</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
@@ -1570,40 +970,11 @@
     <rPh sb="4" eb="6">
       <t>シンセイ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録申請が完了したことを伝える。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンセイ</t>
-    </rPh>
     <rPh sb="7" eb="9">
       <t>カンリョウ</t>
     </rPh>
     <rPh sb="14" eb="15">
       <t>ツタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正申請されているデータの一覧。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1624,32 +995,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード再発行用にメールアドレスを入力する</t>
-    <rPh sb="5" eb="8">
-      <t>サイハッコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード再設定用画面へのリンク</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード再設定入力</t>
     <rPh sb="5" eb="8">
       <t>サイセッテイ</t>
@@ -1660,29 +1005,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>再設定するパスワードを入力</t>
-    <rPh sb="0" eb="3">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードの再設定が完了しました画面</t>
-    <rPh sb="6" eb="9">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー登録完了</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -1694,28 +1016,6 @@
   </si>
   <si>
     <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部サイトを利用した新規登録が完了したことを説明</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セツメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1754,76 +1054,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外部サイト側の認証画面でキャンセルするなどした場合のエラーを表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連携している各外部サイトへのリンクと、メール認証の入力が行える</t>
-    <rPh sb="0" eb="2">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール認証のパスワードを入力してもらう</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール認証による登録が完了したことを表示する</t>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1848,34 +1078,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自分以外のユーザーのプロフィールを表示する。自分用と比べていくつか表示項目が異なる。</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ジブンヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>クラ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール設定</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
@@ -1907,13 +1109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード再設定</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部認証エラー(追加登録)</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -1989,16 +1184,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どういうデータが申請されているか見られる</t>
-    <rPh sb="8" eb="10">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2282,13 +1467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いいねしたログ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2377,12 +1555,1639 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>自身が投稿したレビューの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのゲームまたは指定したゲームソフトのレビューの一覧を表示する。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューを投稿する。</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿したレビューを修正する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な内容のレビューを申告する。</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なレビューの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なレビューに対するアクションを実行できる。</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューに対していいねしたログを表示する。</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身がいいねしたレビューの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの一覧を表示する。（＝ゲームの一覧）</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のユーザーが参加しているコミュニティの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティに参加しているユーザーの一覧を表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻略掲示板記事詳細</t>
+    <rPh sb="0" eb="2">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの攻略掲示板、記事の件名を一覧表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板への不正投稿を申告できる。</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板への投稿内容を入力し、投稿できる。</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事の内容の詳細と、記事に対するレスを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻略掲示板記事一覧</t>
+    <rPh sb="0" eb="2">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑談掲示板記事一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑談掲示板記事詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの雑談掲示板、記事の件名を一覧表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームを絞り込む時にソフトを選択できる。</t>
+    <rPh sb="4" eb="5">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分以外のユーザーのプロフィールを表示する。
+自分用と比べていくつか表示項目が異なる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ジブンヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録しているゲームソフトの一覧を表示する。
+遷移元によって、ゲームを選んだ際の遷移先画面が変わる。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトに関する情報（発売日など）を表示する。
+修正申請や、レビューへのリンクなどもある。</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハツバイビ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正申請されているデータの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこがどう修正されたかをみられる。</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録申請されているデータの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どういうデータが申請されているがみられる。</t>
+    <rPh sb="8" eb="10">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録または修正申請のログと対応のステータスを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請されたゲームの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録申請の対応を行える。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正申請の対応を行える。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したゲームを遊んだことのある人のゲームの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネタバレが記載されているなど、ユーザーから不正だと指摘されたデータの一覧を表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがお気に入りに登録しているゲームの一覧を表示する。</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このゲームをお気に入りに登録しているユーザーの一覧を表示する。</t>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連携している各外部サイトへのリンクと、メール認証の入力が行える。</t>
+    <rPh sb="0" eb="2">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各機能へのリンクを表示する。</t>
+    <rPh sb="0" eb="3">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイト側の認証画面でキャンセルするなどした場合のエラーを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの入力欄と説明を表示する。</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイトを利用した新規登録が完了したことを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証のパスワードを入力してもらう。</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証による登録が完了したことを表示する。</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再発行用にメールアドレスを入力する。</t>
+    <rPh sb="5" eb="8">
+      <t>サイハッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定用画面へのリンクを表示する。</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再設定するパスワードを入力できる。</t>
+    <rPh sb="0" eb="3">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの再設定が完了した旨を表示する。</t>
+    <rPh sb="6" eb="9">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムラインと各機能へのリンクを表示する。</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの各種設定画面へのリンクを表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部連携サイトが並び、連携済みの場合はその表示と連携解除方法の説明を、未連携の場合は連携画面へのリンクを表示する。
+メール認証登録画面へのリンクも表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身のプロフィールを編集できる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各機能の公開範囲を設定できる。</t>
+    <rPh sb="0" eb="3">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームコントローラーを接続している時に、キーコンフィグを設定できる。</t>
+    <rPh sb="11" eb="13">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定</t>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの変更を行える。</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部認証サイトの追加登録を行おうとして、キャンセルされた場合にエラーを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイトで登録済みのユーザーが、メール認証の登録を行う時に送られるメール。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記のメールでアクセスできる。パスワードの入力を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証の登録が完了したことを通知する。</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身がフォローしているユーザーの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身をフォローしているユーザーの一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊んだゲーム一覧</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊んだゲーム登録</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊んだゲーム編集</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが過去に遊んだゲームの一覧を表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊んだゲームを登録できる。</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した遊んだゲームの編集を行える。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な遊んだゲーム一覧</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な遊んだゲーム対応</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊んだゲームの不正データに対応する。</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社一覧</t>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社新規登録</t>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社詳細</t>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社編集</t>
+    <rPh sb="3" eb="5">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム一覧</t>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム新規登録</t>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム詳細</t>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム編集</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフト一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフト新規登録</t>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフト詳細</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフト編集</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシリーズ一覧</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシリーズ新規登録</t>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシリーズ詳細</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシリーズ編集</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッケージ登録</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッケージ詳細</t>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッケージ編集</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社マスターを一覧表示する。</t>
+    <rPh sb="3" eb="5">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社マスターの新規登録を行える。</t>
+    <rPh sb="3" eb="5">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社マスターの詳細を表示する。</t>
+    <rPh sb="3" eb="5">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社マスターのデータを編集できる。</t>
+    <rPh sb="3" eb="5">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームマスターを一覧表示する。</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームマスターの新規登録を行える。</t>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームマスターの詳細を表示する。</t>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームマスターのデータを編集できる。</t>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシリーズマスターを一覧表示する。</t>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシリーズマスターの新規登録を行える。</t>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシリーズマスターの詳細を表示する。</t>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシリーズマスターのデータを編集できる。</t>
+    <rPh sb="16" eb="18">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトマスターを一覧表示する。</t>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトマスターの新規登録を行える。</t>
+    <rPh sb="11" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトマスターの詳細を表示する。</t>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフトマスターのデータを編集できる。</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッケージの新規登録を行える。
+ゲームソフト詳細から遷移できる。</t>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッケージマスターの詳細を表示する。</t>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッケージマスターのデータを編集できる。</t>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正投稿報告一覧</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正投稿報告対応</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正報告の一覧を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正報告の投稿に対してアクションを行える。</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2530,7 +3335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,13 +3375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2627,7 +3426,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2645,7 +3444,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2663,7 +3462,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2681,7 +3480,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2699,7 +3498,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2717,7 +3516,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2863,7 +3662,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2937,6 +3736,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2971,6 +3771,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3146,81 +3947,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="F7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
-      <c r="P10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="23">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="P10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21">
         <v>42883</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="P11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="23">
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="P11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21">
         <v>42883</v>
       </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3237,14 +4038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -3254,25 +4055,25 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8">
         <v>42883</v>
@@ -3282,7 +4083,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3290,7 +4091,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3298,7 +4099,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3306,7 +4107,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3314,7 +4115,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3322,7 +4123,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3330,7 +4131,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3338,7 +4139,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3346,7 +4147,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3354,7 +4155,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3362,7 +4163,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3370,7 +4171,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3378,7 +4179,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3386,7 +4187,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3394,7 +4195,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3402,7 +4203,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3410,7 +4211,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3418,7 +4219,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3426,7 +4227,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3434,7 +4235,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3442,7 +4243,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3450,7 +4251,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3458,7 +4259,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3466,7 +4267,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3474,7 +4275,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3482,7 +4283,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3490,7 +4291,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3498,7 +4299,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3506,7 +4307,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3514,7 +4315,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3522,7 +4323,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3530,7 +4331,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3538,7 +4339,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3546,7 +4347,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3554,7 +4355,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3562,7 +4363,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3570,7 +4371,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3578,7 +4379,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3586,7 +4387,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3594,7 +4395,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3602,7 +4403,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3610,7 +4411,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3618,7 +4419,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3626,7 +4427,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3634,7 +4435,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3642,7 +4443,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3650,7 +4451,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3658,7 +4459,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3666,7 +4467,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3674,7 +4475,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3682,7 +4483,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3690,7 +4491,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3698,7 +4499,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3706,7 +4507,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3714,7 +4515,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3722,7 +4523,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3730,7 +4531,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3738,7 +4539,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3746,7 +4547,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3754,7 +4555,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3762,7 +4563,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3770,7 +4571,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3778,7 +4579,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3786,7 +4587,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3794,7 +4595,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3802,7 +4603,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3810,7 +4611,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3818,7 +4619,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3826,7 +4627,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3834,7 +4635,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3842,7 +4643,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3850,7 +4651,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3858,7 +4659,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3866,7 +4667,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3874,7 +4675,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3882,7 +4683,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3890,7 +4691,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3898,7 +4699,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3906,7 +4707,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3914,7 +4715,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3922,7 +4723,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3930,7 +4731,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3938,7 +4739,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3946,7 +4747,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3954,7 +4755,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3962,7 +4763,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3970,7 +4771,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3978,7 +4779,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3986,7 +4787,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3994,7 +4795,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4002,7 +4803,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4010,7 +4811,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4018,7 +4819,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4026,7 +4827,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4034,7 +4835,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4042,7 +4843,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4050,7 +4851,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4058,7 +4859,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4066,7 +4867,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4074,7 +4875,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4082,7 +4883,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4090,7 +4891,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4098,7 +4899,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4106,7 +4907,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4114,7 +4915,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4122,7 +4923,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4130,7 +4931,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4138,7 +4939,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4146,7 +4947,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4154,7 +4955,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4162,7 +4963,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4170,7 +4971,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4178,7 +4979,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4186,7 +4987,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4194,7 +4995,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4202,7 +5003,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4210,7 +5011,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4218,7 +5019,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4226,7 +5027,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4234,7 +5035,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4242,7 +5043,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4250,7 +5051,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4258,7 +5059,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4266,7 +5067,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4274,7 +5075,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4282,7 +5083,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4290,7 +5091,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4298,7 +5099,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4306,7 +5107,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4314,7 +5115,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4322,7 +5123,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4330,7 +5131,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4338,7 +5139,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4346,7 +5147,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4354,7 +5155,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4362,7 +5163,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4370,7 +5171,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4378,7 +5179,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4386,7 +5187,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4394,7 +5195,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4402,7 +5203,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4410,7 +5211,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4418,7 +5219,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4426,7 +5227,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4434,7 +5235,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4442,7 +5243,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4450,7 +5251,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4458,7 +5259,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4466,7 +5267,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4474,7 +5275,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4482,7 +5283,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4490,7 +5291,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4498,7 +5299,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4506,7 +5307,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4514,7 +5315,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4522,7 +5323,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4530,34 +5331,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -4572,2040 +5373,2092 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E216"/>
+  <dimension ref="A4:D232"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="16"/>
+      <c r="B33" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="16"/>
+      <c r="B41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="16"/>
+      <c r="B43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="16"/>
+      <c r="B44" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="16"/>
+      <c r="B46" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="16"/>
+      <c r="B47" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="16"/>
+      <c r="B48" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="16"/>
+      <c r="B49" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="16"/>
+      <c r="B50" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="16"/>
+      <c r="B51" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="16"/>
+      <c r="B52" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="16"/>
+      <c r="B53" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" thickTop="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="16"/>
+      <c r="B55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="16"/>
+      <c r="B56" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="16"/>
+      <c r="B57" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="16"/>
+      <c r="B58" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="16"/>
+      <c r="B59" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="16"/>
+      <c r="B60" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="16"/>
+      <c r="B61" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="16"/>
+      <c r="B62" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="16"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="16"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="16"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="16"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="16"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+      <c r="A68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="16"/>
+      <c r="B69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="16"/>
+      <c r="B70" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="16"/>
+      <c r="B71" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="16"/>
+      <c r="B72" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="16"/>
+      <c r="B73" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="16"/>
+      <c r="B74" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="16"/>
+      <c r="B75" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="16"/>
+      <c r="B76" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="16"/>
+      <c r="B77" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="16"/>
+      <c r="B78" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="16"/>
+      <c r="B79" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="17"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="16"/>
+      <c r="B82" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="16"/>
+      <c r="B83" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="16"/>
+      <c r="B84" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="16"/>
+      <c r="B85" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="16"/>
+      <c r="B86" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="16"/>
+      <c r="B87" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="16"/>
+      <c r="B88" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="16"/>
+      <c r="B89" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="16"/>
+      <c r="B90" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="16"/>
+      <c r="B91" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="16"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="16"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="16"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="16"/>
+      <c r="B96" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="16"/>
+      <c r="B97" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="16"/>
+      <c r="B98" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="16"/>
+      <c r="B99" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="16"/>
+      <c r="B100" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="16"/>
+      <c r="B101" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="16"/>
+      <c r="B102" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="16"/>
+      <c r="B103" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="11" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="16"/>
+      <c r="B104" s="11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="11" t="s">
+      <c r="C104" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="16"/>
+      <c r="B105" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="37.5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="11" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="16"/>
+      <c r="B106" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="16"/>
+      <c r="B107" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="37.5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="37.5">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" ht="56.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" ht="37.5">
-      <c r="A41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="37.5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="18"/>
-      <c r="B59" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="18"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" ht="75">
-      <c r="A69" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="37.5">
-      <c r="A70" s="18"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="37.5">
-      <c r="A71" s="18"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="37.5">
-      <c r="A72" s="18"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="18"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="18"/>
-      <c r="B74" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="18"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="18"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="18"/>
-      <c r="B77" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="18"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="18"/>
-      <c r="B79" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="18"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="19"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="37.5">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="D107" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="16"/>
+      <c r="B108" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="16"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="16"/>
+      <c r="B111" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="16"/>
+      <c r="B112" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="16"/>
+      <c r="B113" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="16"/>
+      <c r="B114" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="16"/>
+      <c r="B115" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="16"/>
+      <c r="B116" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="16"/>
+      <c r="B117" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="16"/>
+      <c r="B118" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="16"/>
+      <c r="B119" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="16"/>
+      <c r="B120" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="16"/>
+      <c r="B121" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="16"/>
+      <c r="B122" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="16"/>
+      <c r="B123" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="16"/>
+      <c r="B124" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="16"/>
+      <c r="B125" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A126" s="16"/>
+      <c r="B126" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="16"/>
+      <c r="B127" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="16"/>
+      <c r="B128" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="17"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:5">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="1:5">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-    </row>
-    <row r="202" spans="1:5">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-    </row>
-    <row r="203" spans="1:5">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="1:5">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-    </row>
-    <row r="205" spans="1:5">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-    </row>
-    <row r="206" spans="1:5">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-    </row>
-    <row r="207" spans="1:5">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="1:5">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-    </row>
-    <row r="209" spans="1:5">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-    </row>
-    <row r="210" spans="1:5">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-    </row>
-    <row r="211" spans="1:5">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-    </row>
-    <row r="212" spans="1:5">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-    </row>
-    <row r="213" spans="1:5">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-    </row>
-    <row r="214" spans="1:5">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-    </row>
-    <row r="215" spans="1:5">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-    </row>
-    <row r="216" spans="1:5">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -3179,6 +3179,102 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証パスワード設定エラー</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定入力エラー</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定入力の有効期限切れを表示する。</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証パスワード設定の有効期限切れを表示する。</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証パスワード入力エラー</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証パスワード入力の有効期限切れを表示する。</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5377,16 +5473,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:D232"/>
+  <dimension ref="A4:D235"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="2.625" style="1"/>
@@ -5539,580 +5635,598 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="11" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="11" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
       <c r="B19" s="11" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="11" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
       <c r="B21" s="11" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
       <c r="B22" s="11" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="16"/>
       <c r="B23" s="11" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="11" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="11" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="11" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="11" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="11" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="11" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="11" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
       <c r="B44" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
       <c r="B45" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="16"/>
       <c r="B46" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="16"/>
       <c r="B48" s="11" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
       <c r="B51" s="11" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="11" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="11" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="16"/>
       <c r="B54" s="11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="16"/>
       <c r="B55" s="11" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="16"/>
       <c r="B56" s="11" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="16"/>
       <c r="B57" s="11" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="16"/>
       <c r="B58" s="11" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="16"/>
       <c r="B59" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="16"/>
       <c r="B60" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="11" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A62" s="16"/>
       <c r="B62" s="11" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="16"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="16"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="16"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
+      <c r="B65" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="16"/>
@@ -6126,739 +6240,739 @@
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.15">
-      <c r="A68" s="15" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="16"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="16"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="16"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+      <c r="A71" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B71" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D71" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="16"/>
-      <c r="B69" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="16"/>
-      <c r="B70" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
-      <c r="B71" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A72" s="16"/>
       <c r="B72" s="11" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A73" s="16"/>
       <c r="B73" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A74" s="16"/>
       <c r="B74" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="16"/>
       <c r="B75" s="11" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="16"/>
       <c r="B76" s="11" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="16"/>
       <c r="B77" s="11" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
       <c r="B78" s="11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="16"/>
       <c r="B79" s="11" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="17"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="A81" s="16"/>
       <c r="B81" s="11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="16"/>
       <c r="B82" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="16"/>
-      <c r="B83" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>140</v>
-      </c>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="17"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="16"/>
+      <c r="A84" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="B84" s="11" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="16"/>
       <c r="B85" s="11" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A86" s="16"/>
       <c r="B86" s="11" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="16"/>
       <c r="B87" s="11" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="16"/>
       <c r="B88" s="11" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="16"/>
       <c r="B89" s="11" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="16"/>
       <c r="B90" s="11" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="16"/>
       <c r="B91" s="11" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="16"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="11"/>
+      <c r="B92" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="16"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="16"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
+      <c r="B94" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="A95" s="16"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="11"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="16"/>
-      <c r="B96" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="16"/>
-      <c r="B97" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="10" t="s">
+      <c r="B97" s="11"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="16"/>
-      <c r="B98" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="D98" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="16"/>
       <c r="B99" s="11" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="16"/>
       <c r="B100" s="11" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="16"/>
       <c r="B101" s="11" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="16"/>
       <c r="B102" s="11" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="16"/>
       <c r="B103" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="16"/>
       <c r="B104" s="11" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="16"/>
       <c r="B105" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="16"/>
       <c r="B106" s="11" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="16"/>
       <c r="B107" s="11" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="16"/>
       <c r="B108" s="11" t="s">
-        <v>258</v>
+        <v>56</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="16"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="11"/>
+      <c r="B109" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="15" t="s">
-        <v>207</v>
-      </c>
+      <c r="A110" s="16"/>
       <c r="B110" s="11" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="16"/>
       <c r="B111" s="11" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="16"/>
-      <c r="B112" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="11"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="16"/>
+      <c r="A113" s="15" t="s">
+        <v>207</v>
+      </c>
       <c r="B113" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="16"/>
       <c r="B114" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="16"/>
       <c r="B115" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="16"/>
       <c r="B116" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="16"/>
       <c r="B117" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="16"/>
       <c r="B118" s="11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="16"/>
       <c r="B119" s="11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="16"/>
       <c r="B120" s="11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="16"/>
       <c r="B121" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="16"/>
       <c r="B122" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="16"/>
       <c r="B123" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="16"/>
       <c r="B124" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="16"/>
       <c r="B125" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="16"/>
       <c r="B126" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="16"/>
       <c r="B127" s="11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="16"/>
       <c r="B128" s="11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D128" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="16"/>
+      <c r="B129" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="16"/>
+      <c r="B130" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="16"/>
+      <c r="B131" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="17"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="11"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="4"/>
-    </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="4"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="11"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
@@ -6918,19 +7032,19 @@
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
@@ -7459,6 +7573,24 @@
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="12015" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="269">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -3278,12 +3278,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実装状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3431,7 +3445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3501,6 +3515,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3522,7 +3542,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3540,7 +3560,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3558,7 +3578,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3576,7 +3596,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3594,7 +3614,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3612,7 +3632,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3758,7 +3778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3832,7 +3852,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3867,7 +3886,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4043,19 +4061,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4088,8 +4106,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
+    <row r="10" spans="1:29">
       <c r="P10" s="20" t="s">
         <v>15</v>
       </c>
@@ -4104,7 +4122,7 @@
       <c r="W10" s="22"/>
       <c r="X10" s="22"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29">
       <c r="P11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4134,14 +4152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -4151,7 +4169,7 @@
     <col min="7" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -4167,7 +4185,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -4179,7 +4197,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4187,7 +4205,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4195,7 +4213,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4203,7 +4221,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4211,7 +4229,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4219,7 +4237,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4227,7 +4245,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4235,7 +4253,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4243,7 +4261,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4251,7 +4269,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4259,7 +4277,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4267,7 +4285,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4275,7 +4293,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4283,7 +4301,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4291,7 +4309,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4299,7 +4317,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4307,7 +4325,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4315,7 +4333,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4323,7 +4341,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4331,7 +4349,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4339,7 +4357,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4347,7 +4365,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4355,7 +4373,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4363,7 +4381,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4371,7 +4389,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4379,7 +4397,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4387,7 +4405,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4395,7 +4413,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4403,7 +4421,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4411,7 +4429,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4419,7 +4437,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4427,7 +4445,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4435,7 +4453,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4443,7 +4461,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4451,7 +4469,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4459,7 +4477,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4467,7 +4485,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4475,7 +4493,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4483,7 +4501,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4491,7 +4509,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4499,7 +4517,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4507,7 +4525,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4515,7 +4533,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4523,7 +4541,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4531,7 +4549,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4539,7 +4557,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4547,7 +4565,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4555,7 +4573,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4563,7 +4581,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4571,7 +4589,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4579,7 +4597,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4587,7 +4605,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4595,7 +4613,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4603,7 +4621,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4611,7 +4629,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4619,7 +4637,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4627,7 +4645,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4635,7 +4653,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4643,7 +4661,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4651,7 +4669,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4659,7 +4677,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4667,7 +4685,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4675,7 +4693,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4683,7 +4701,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4691,7 +4709,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4699,7 +4717,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4707,7 +4725,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4715,7 +4733,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4723,7 +4741,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4731,7 +4749,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4739,7 +4757,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4747,7 +4765,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4755,7 +4773,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4763,7 +4781,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4771,7 +4789,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4779,7 +4797,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4787,7 +4805,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4795,7 +4813,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4803,7 +4821,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4811,7 +4829,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4819,7 +4837,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4827,7 +4845,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4835,7 +4853,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4843,7 +4861,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4851,7 +4869,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4859,7 +4877,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4867,7 +4885,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4875,7 +4893,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4883,7 +4901,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4891,7 +4909,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4899,7 +4917,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4907,7 +4925,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4915,7 +4933,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4923,7 +4941,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4931,7 +4949,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4939,7 +4957,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4947,7 +4965,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4955,7 +4973,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4963,7 +4981,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4971,7 +4989,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4979,7 +4997,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4987,7 +5005,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4995,7 +5013,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5003,7 +5021,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5011,7 +5029,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5019,7 +5037,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5027,7 +5045,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5035,7 +5053,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5043,7 +5061,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5051,7 +5069,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5059,7 +5077,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5067,7 +5085,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5075,7 +5093,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5083,7 +5101,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5091,7 +5109,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5099,7 +5117,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5107,7 +5125,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5115,7 +5133,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5123,7 +5141,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5131,7 +5149,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5139,7 +5157,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5147,7 +5165,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5155,7 +5173,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5163,7 +5181,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5171,7 +5189,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5179,7 +5197,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5187,7 +5205,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5195,7 +5213,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5203,7 +5221,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5211,7 +5229,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5219,7 +5237,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5227,7 +5245,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5235,7 +5253,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5243,7 +5261,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5251,7 +5269,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5259,7 +5277,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5267,7 +5285,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5275,7 +5293,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5283,7 +5301,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5291,7 +5309,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5299,7 +5317,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5307,7 +5325,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5315,7 +5333,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5323,7 +5341,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5331,7 +5349,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5339,7 +5357,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5347,7 +5365,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5355,7 +5373,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5363,7 +5381,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5371,7 +5389,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5379,7 +5397,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5387,7 +5405,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5395,7 +5413,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5403,7 +5421,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5411,7 +5429,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5419,7 +5437,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5427,34 +5445,34 @@
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="E171" s="2"/>
     </row>
   </sheetData>
@@ -5469,26 +5487,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:D235"/>
+  <dimension ref="A4:F235"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="2.625" style="1"/>
+    <col min="5" max="5" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="19.5" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -5501,8 +5520,12 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" thickTop="1">
       <c r="A5" s="18" t="s">
         <v>218</v>
       </c>
@@ -5515,8 +5538,10 @@
       <c r="D5" s="12" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="23"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="16"/>
       <c r="B6" s="12" t="s">
         <v>57</v>
@@ -5527,8 +5552,10 @@
       <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="23"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="16"/>
       <c r="B7" s="11" t="s">
         <v>76</v>
@@ -5539,14 +5566,18 @@
       <c r="D7" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="24"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="17"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="24"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -5559,8 +5590,10 @@
       <c r="D9" s="11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="24"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="16"/>
       <c r="B10" s="11" t="s">
         <v>65</v>
@@ -5571,8 +5604,10 @@
       <c r="D10" s="11" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="24"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
@@ -5583,8 +5618,10 @@
       <c r="D11" s="11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="24"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="16"/>
       <c r="B12" s="11" t="s">
         <v>103</v>
@@ -5595,8 +5632,10 @@
       <c r="D12" s="11" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" s="24"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
         <v>66</v>
@@ -5607,8 +5646,10 @@
       <c r="D13" s="11" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E13" s="24"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="37.5">
       <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
         <v>10</v>
@@ -5619,8 +5660,10 @@
       <c r="D14" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="24"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="16"/>
       <c r="B15" s="11" t="s">
         <v>63</v>
@@ -5631,8 +5674,10 @@
       <c r="D15" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="24"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="16"/>
       <c r="B16" s="11" t="s">
         <v>261</v>
@@ -5643,8 +5688,10 @@
       <c r="D16" s="11" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="24"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="16"/>
       <c r="B17" s="11" t="s">
         <v>64</v>
@@ -5655,8 +5702,10 @@
       <c r="D17" s="11" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="24"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="16"/>
       <c r="B18" s="11" t="s">
         <v>198</v>
@@ -5667,8 +5716,10 @@
       <c r="D18" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="24"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="16"/>
       <c r="B19" s="11" t="s">
         <v>60</v>
@@ -5679,8 +5730,10 @@
       <c r="D19" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="24"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="16"/>
       <c r="B20" s="11" t="s">
         <v>102</v>
@@ -5691,8 +5744,10 @@
       <c r="D20" s="11" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="24"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="16"/>
       <c r="B21" s="11" t="s">
         <v>262</v>
@@ -5703,8 +5758,10 @@
       <c r="D21" s="11" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="24"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="16"/>
       <c r="B22" s="11" t="s">
         <v>61</v>
@@ -5715,8 +5772,10 @@
       <c r="D22" s="11" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="24"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="16"/>
       <c r="B23" s="11" t="s">
         <v>11</v>
@@ -5727,8 +5786,10 @@
       <c r="D23" s="11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="24"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="16"/>
       <c r="B24" s="11" t="s">
         <v>106</v>
@@ -5739,8 +5800,10 @@
       <c r="D24" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E24" s="24"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="37.5">
       <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
         <v>107</v>
@@ -5751,8 +5814,10 @@
       <c r="D25" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="24"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="16"/>
       <c r="B26" s="11" t="s">
         <v>24</v>
@@ -5763,8 +5828,10 @@
       <c r="D26" s="11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" s="24"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="16"/>
       <c r="B27" s="11" t="s">
         <v>109</v>
@@ -5775,8 +5842,10 @@
       <c r="D27" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="24"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="16"/>
       <c r="B28" s="11" t="s">
         <v>110</v>
@@ -5787,8 +5856,10 @@
       <c r="D28" s="11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" s="24"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="16"/>
       <c r="B29" s="11" t="s">
         <v>111</v>
@@ -5799,8 +5870,10 @@
       <c r="D29" s="11" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="E29" s="24"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="56.25">
       <c r="A30" s="16"/>
       <c r="B30" s="11" t="s">
         <v>112</v>
@@ -5811,8 +5884,10 @@
       <c r="D30" s="11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" s="24"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="16"/>
       <c r="B31" s="11" t="s">
         <v>199</v>
@@ -5823,8 +5898,10 @@
       <c r="D31" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31" s="24"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="16"/>
       <c r="B32" s="11" t="s">
         <v>113</v>
@@ -5835,8 +5912,10 @@
       <c r="D32" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32" s="24"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="16"/>
       <c r="B33" s="11" t="s">
         <v>114</v>
@@ -5847,8 +5926,10 @@
       <c r="D33" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33" s="24"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="16"/>
       <c r="B34" s="11" t="s">
         <v>116</v>
@@ -5859,8 +5940,10 @@
       <c r="D34" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34" s="24"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="16"/>
       <c r="B35" s="11" t="s">
         <v>265</v>
@@ -5871,8 +5954,10 @@
       <c r="D35" s="11" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35" s="24"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="16"/>
       <c r="B36" s="11" t="s">
         <v>115</v>
@@ -5883,8 +5968,10 @@
       <c r="D36" s="11" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36" s="24"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="16"/>
       <c r="B37" s="11" t="s">
         <v>7</v>
@@ -5895,8 +5982,10 @@
       <c r="D37" s="11" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37" s="24"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="16"/>
       <c r="B38" s="11" t="s">
         <v>8</v>
@@ -5907,14 +5996,18 @@
       <c r="D38" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38" s="24"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="17"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E39" s="24"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="37.5">
       <c r="A40" s="15" t="s">
         <v>14</v>
       </c>
@@ -5927,8 +6020,12 @@
       <c r="D40" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E40" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="37.5">
       <c r="A41" s="16"/>
       <c r="B41" s="11" t="s">
         <v>3</v>
@@ -5939,8 +6036,10 @@
       <c r="D41" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E41" s="24"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="16"/>
       <c r="B42" s="11" t="s">
         <v>80</v>
@@ -5951,8 +6050,10 @@
       <c r="D42" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42" s="24"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="16"/>
       <c r="B43" s="11" t="s">
         <v>81</v>
@@ -5963,8 +6064,10 @@
       <c r="D43" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E43" s="24"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="16"/>
       <c r="B44" s="11" t="s">
         <v>90</v>
@@ -5975,8 +6078,10 @@
       <c r="D44" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E44" s="24"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="16"/>
       <c r="B45" s="11" t="s">
         <v>86</v>
@@ -5987,8 +6092,10 @@
       <c r="D45" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E45" s="24"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="16"/>
       <c r="B46" s="11" t="s">
         <v>88</v>
@@ -5999,8 +6106,10 @@
       <c r="D46" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E46" s="24"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="16"/>
       <c r="B47" s="11" t="s">
         <v>92</v>
@@ -6011,8 +6120,10 @@
       <c r="D47" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E47" s="24"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="16"/>
       <c r="B48" s="11" t="s">
         <v>82</v>
@@ -6023,8 +6134,10 @@
       <c r="D48" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48" s="24"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="16"/>
       <c r="B49" s="11" t="s">
         <v>95</v>
@@ -6035,8 +6148,10 @@
       <c r="D49" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49" s="24"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="16"/>
       <c r="B50" s="11" t="s">
         <v>96</v>
@@ -6047,8 +6162,10 @@
       <c r="D50" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E50" s="24"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="16"/>
       <c r="B51" s="11" t="s">
         <v>97</v>
@@ -6059,8 +6176,10 @@
       <c r="D51" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E51" s="24"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="16"/>
       <c r="B52" s="11" t="s">
         <v>101</v>
@@ -6071,8 +6190,10 @@
       <c r="D52" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52" s="24"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="16"/>
       <c r="B53" s="11" t="s">
         <v>98</v>
@@ -6083,8 +6204,10 @@
       <c r="D53" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53" s="24"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="16"/>
       <c r="B54" s="11" t="s">
         <v>83</v>
@@ -6095,8 +6218,10 @@
       <c r="D54" s="11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54" s="24"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="16"/>
       <c r="B55" s="11" t="s">
         <v>84</v>
@@ -6107,8 +6232,10 @@
       <c r="D55" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55" s="24"/>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="16"/>
       <c r="B56" s="11" t="s">
         <v>35</v>
@@ -6119,8 +6246,10 @@
       <c r="D56" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56" s="24"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="16"/>
       <c r="B57" s="11" t="s">
         <v>36</v>
@@ -6131,8 +6260,10 @@
       <c r="D57" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57" s="24"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="16"/>
       <c r="B58" s="11" t="s">
         <v>23</v>
@@ -6143,8 +6274,10 @@
       <c r="D58" s="11" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58" s="24"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="16"/>
       <c r="B59" s="11" t="s">
         <v>208</v>
@@ -6155,8 +6288,10 @@
       <c r="D59" s="11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59" s="24"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="16"/>
       <c r="B60" s="11" t="s">
         <v>209</v>
@@ -6167,8 +6302,10 @@
       <c r="D60" s="11" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E60" s="24"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="16"/>
       <c r="B61" s="11" t="s">
         <v>210</v>
@@ -6179,8 +6316,10 @@
       <c r="D61" s="11" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E61" s="24"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="1:6" ht="37.5">
       <c r="A62" s="16"/>
       <c r="B62" s="11" t="s">
         <v>215</v>
@@ -6191,8 +6330,10 @@
       <c r="D62" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E62" s="24"/>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="16"/>
       <c r="B63" s="11" t="s">
         <v>216</v>
@@ -6203,8 +6344,10 @@
       <c r="D63" s="11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E63" s="24"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="16"/>
       <c r="B64" s="11" t="s">
         <v>40</v>
@@ -6215,8 +6358,10 @@
       <c r="D64" s="11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E64" s="24"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="16"/>
       <c r="B65" s="11" t="s">
         <v>41</v>
@@ -6227,38 +6372,50 @@
       <c r="D65" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E65" s="24"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="16"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
       <c r="D66" s="11"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E66" s="24"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="16"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E67" s="24"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="16"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
       <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E68" s="24"/>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="16"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E69" s="24"/>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="16"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+      <c r="E70" s="24"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="1:6" ht="75">
       <c r="A71" s="15" t="s">
         <v>12</v>
       </c>
@@ -6271,8 +6428,10 @@
       <c r="D71" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E71" s="24"/>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="1:6" ht="37.5">
       <c r="A72" s="16"/>
       <c r="B72" s="11" t="s">
         <v>25</v>
@@ -6283,8 +6442,10 @@
       <c r="D72" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E72" s="24"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" ht="37.5">
       <c r="A73" s="16"/>
       <c r="B73" s="11" t="s">
         <v>123</v>
@@ -6295,8 +6456,10 @@
       <c r="D73" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E73" s="24"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:6" ht="37.5">
       <c r="A74" s="16"/>
       <c r="B74" s="11" t="s">
         <v>127</v>
@@ -6307,8 +6470,10 @@
       <c r="D74" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E74" s="24"/>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="16"/>
       <c r="B75" s="11" t="s">
         <v>129</v>
@@ -6319,8 +6484,10 @@
       <c r="D75" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E75" s="24"/>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="16"/>
       <c r="B76" s="11" t="s">
         <v>117</v>
@@ -6331,8 +6498,10 @@
       <c r="D76" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E76" s="24"/>
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="16"/>
       <c r="B77" s="11" t="s">
         <v>118</v>
@@ -6343,8 +6512,10 @@
       <c r="D77" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E77" s="24"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="16"/>
       <c r="B78" s="11" t="s">
         <v>26</v>
@@ -6355,8 +6526,10 @@
       <c r="D78" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E78" s="24"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="16"/>
       <c r="B79" s="11" t="s">
         <v>74</v>
@@ -6367,8 +6540,10 @@
       <c r="D79" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E79" s="24"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="16"/>
       <c r="B80" s="11" t="s">
         <v>75</v>
@@ -6379,8 +6554,10 @@
       <c r="D80" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E80" s="24"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="16"/>
       <c r="B81" s="11" t="s">
         <v>46</v>
@@ -6391,8 +6568,10 @@
       <c r="D81" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E81" s="24"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="16"/>
       <c r="B82" s="11" t="s">
         <v>45</v>
@@ -6403,14 +6582,18 @@
       <c r="D82" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E82" s="24"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="17"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
       <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E83" s="24"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="15" t="s">
         <v>37</v>
       </c>
@@ -6423,8 +6606,10 @@
       <c r="D84" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E84" s="24"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="16"/>
       <c r="B85" s="11" t="s">
         <v>42</v>
@@ -6435,8 +6620,12 @@
       <c r="D85" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E85" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" ht="37.5">
       <c r="A86" s="16"/>
       <c r="B86" s="11" t="s">
         <v>138</v>
@@ -6447,8 +6636,10 @@
       <c r="D86" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E86" s="24"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="16"/>
       <c r="B87" s="11" t="s">
         <v>141</v>
@@ -6459,8 +6650,10 @@
       <c r="D87" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E87" s="24"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="16"/>
       <c r="B88" s="11" t="s">
         <v>137</v>
@@ -6471,8 +6664,12 @@
       <c r="D88" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E88" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="16"/>
       <c r="B89" s="11" t="s">
         <v>43</v>
@@ -6483,8 +6680,10 @@
       <c r="D89" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E89" s="24"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="16"/>
       <c r="B90" s="11" t="s">
         <v>71</v>
@@ -6495,8 +6694,10 @@
       <c r="D90" s="11" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E90" s="24"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="16"/>
       <c r="B91" s="11" t="s">
         <v>72</v>
@@ -6507,8 +6708,10 @@
       <c r="D91" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E91" s="24"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="16"/>
       <c r="B92" s="11" t="s">
         <v>73</v>
@@ -6519,20 +6722,26 @@
       <c r="D92" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E92" s="24"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="16"/>
       <c r="B93" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E93" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="16"/>
       <c r="B94" s="11" t="s">
         <v>135</v>
@@ -6543,26 +6752,34 @@
       <c r="D94" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E94" s="24"/>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="16"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E95" s="24"/>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="16"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E96" s="24"/>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="16"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E97" s="24"/>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="15" t="s">
         <v>39</v>
       </c>
@@ -6575,8 +6792,10 @@
       <c r="D98" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E98" s="24"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="16"/>
       <c r="B99" s="11" t="s">
         <v>51</v>
@@ -6587,8 +6806,10 @@
       <c r="D99" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E99" s="24"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="16"/>
       <c r="B100" s="11" t="s">
         <v>52</v>
@@ -6599,8 +6820,10 @@
       <c r="D100" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E100" s="24"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="16"/>
       <c r="B101" s="11" t="s">
         <v>5</v>
@@ -6611,8 +6834,10 @@
       <c r="D101" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E101" s="24"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="16"/>
       <c r="B102" s="11" t="s">
         <v>160</v>
@@ -6623,8 +6848,10 @@
       <c r="D102" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E102" s="24"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="16"/>
       <c r="B103" s="11" t="s">
         <v>154</v>
@@ -6635,8 +6862,10 @@
       <c r="D103" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E103" s="24"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="16"/>
       <c r="B104" s="11" t="s">
         <v>55</v>
@@ -6647,8 +6876,10 @@
       <c r="D104" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E104" s="24"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="16"/>
       <c r="B105" s="11" t="s">
         <v>77</v>
@@ -6659,8 +6890,10 @@
       <c r="D105" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E105" s="24"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="16"/>
       <c r="B106" s="11" t="s">
         <v>161</v>
@@ -6671,8 +6904,10 @@
       <c r="D106" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E106" s="24"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="16"/>
       <c r="B107" s="11" t="s">
         <v>162</v>
@@ -6683,8 +6918,10 @@
       <c r="D107" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E107" s="24"/>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="16"/>
       <c r="B108" s="11" t="s">
         <v>56</v>
@@ -6695,8 +6932,10 @@
       <c r="D108" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E108" s="24"/>
+      <c r="F108" s="11"/>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="16"/>
       <c r="B109" s="11" t="s">
         <v>78</v>
@@ -6707,8 +6946,10 @@
       <c r="D109" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E109" s="24"/>
+      <c r="F109" s="11"/>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="16"/>
       <c r="B110" s="11" t="s">
         <v>257</v>
@@ -6719,8 +6960,10 @@
       <c r="D110" s="11" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E110" s="24"/>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="16"/>
       <c r="B111" s="11" t="s">
         <v>258</v>
@@ -6731,14 +6974,18 @@
       <c r="D111" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E111" s="24"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="16"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E112" s="24"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="15" t="s">
         <v>207</v>
       </c>
@@ -6751,8 +6998,10 @@
       <c r="D113" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E113" s="24"/>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="16"/>
       <c r="B114" s="11" t="s">
         <v>220</v>
@@ -6763,8 +7012,10 @@
       <c r="D114" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E114" s="24"/>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="16"/>
       <c r="B115" s="11" t="s">
         <v>221</v>
@@ -6775,8 +7026,10 @@
       <c r="D115" s="11" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E115" s="24"/>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="16"/>
       <c r="B116" s="11" t="s">
         <v>222</v>
@@ -6787,8 +7040,10 @@
       <c r="D116" s="11" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E116" s="24"/>
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="16"/>
       <c r="B117" s="11" t="s">
         <v>223</v>
@@ -6799,8 +7054,10 @@
       <c r="D117" s="11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E117" s="24"/>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="16"/>
       <c r="B118" s="11" t="s">
         <v>224</v>
@@ -6811,8 +7068,10 @@
       <c r="D118" s="11" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E118" s="24"/>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="16"/>
       <c r="B119" s="11" t="s">
         <v>225</v>
@@ -6823,8 +7082,10 @@
       <c r="D119" s="11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E119" s="24"/>
+      <c r="F119" s="11"/>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="16"/>
       <c r="B120" s="11" t="s">
         <v>226</v>
@@ -6835,8 +7096,10 @@
       <c r="D120" s="11" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E120" s="24"/>
+      <c r="F120" s="11"/>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="16"/>
       <c r="B121" s="11" t="s">
         <v>231</v>
@@ -6847,8 +7110,10 @@
       <c r="D121" s="11" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E121" s="24"/>
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="16"/>
       <c r="B122" s="11" t="s">
         <v>232</v>
@@ -6859,8 +7124,10 @@
       <c r="D122" s="11" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E122" s="24"/>
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="16"/>
       <c r="B123" s="11" t="s">
         <v>233</v>
@@ -6871,8 +7138,10 @@
       <c r="D123" s="11" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E123" s="24"/>
+      <c r="F123" s="11"/>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="16"/>
       <c r="B124" s="11" t="s">
         <v>234</v>
@@ -6883,8 +7152,10 @@
       <c r="D124" s="11" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E124" s="24"/>
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="16"/>
       <c r="B125" s="11" t="s">
         <v>227</v>
@@ -6895,8 +7166,10 @@
       <c r="D125" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E125" s="24"/>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="16"/>
       <c r="B126" s="11" t="s">
         <v>228</v>
@@ -6907,8 +7180,10 @@
       <c r="D126" s="11" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E126" s="24"/>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="16"/>
       <c r="B127" s="11" t="s">
         <v>229</v>
@@ -6919,8 +7194,10 @@
       <c r="D127" s="11" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E127" s="24"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="16"/>
       <c r="B128" s="11" t="s">
         <v>230</v>
@@ -6931,8 +7208,10 @@
       <c r="D128" s="11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="E128" s="24"/>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="1:6" ht="37.5">
       <c r="A129" s="16"/>
       <c r="B129" s="11" t="s">
         <v>235</v>
@@ -6943,8 +7222,10 @@
       <c r="D129" s="11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E129" s="24"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="16"/>
       <c r="B130" s="11" t="s">
         <v>236</v>
@@ -6955,8 +7236,10 @@
       <c r="D130" s="11" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E130" s="24"/>
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="16"/>
       <c r="B131" s="11" t="s">
         <v>237</v>
@@ -6967,626 +7250,630 @@
       <c r="D131" s="11" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E131" s="24"/>
+      <c r="F131" s="11"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="17"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
       <c r="D132" s="11"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E132" s="24"/>
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:4">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:4">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:4">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>

--- a/documents/layout/画面一覧.xlsx
+++ b/documents/layout/画面一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="12015" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="235">
   <si>
     <t>機能区分</t>
     <rPh sb="0" eb="2">
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新内容</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -217,77 +213,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームソフトに関する情報（発売日など）に間違いがあれば修正を申請する。</t>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ハツバイビ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>マチガ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理</t>
     <rPh sb="0" eb="2">
       <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正申請が完了したことを伝える。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームデータ申請対応(登録)</t>
-    <rPh sb="6" eb="8">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームデータ申請対応(修正)</t>
-    <rPh sb="6" eb="8">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -724,277 +652,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム修正申請</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム修正申請完了</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム新規登録申請</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム申請履歴</t>
-    <rPh sb="3" eb="5">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム申請一覧</t>
-    <rPh sb="3" eb="5">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム修正申請詳細</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム修正Fork申請</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他の人の申請をForkして申請できる。</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム修正申請一覧</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム修正申請対応</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正申請に対応する。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームソフトの新規登録を申請する。</t>
-    <rPh sb="7" eb="9">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム新規登録申請完了</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム新規登録申請一覧</t>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム新規登録申請詳細</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム新規登録申請対応</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録申請に対応する。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録申請が完了したことを伝える。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム新規登録申請追記</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード再設定入力</t>
     <rPh sb="5" eb="8">
       <t>サイセッテイ</t>
@@ -1175,19 +832,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>他の申請に追記する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1991,122 +1635,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正申請されているデータの一覧を表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どこがどう修正されたかをみられる。</t>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録申請されているデータの一覧を表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どういうデータが申請されているがみられる。</t>
-    <rPh sb="8" eb="10">
-      <t>シンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録または修正申請のログと対応のステータスを表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申請されたゲームの一覧を表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録申請の対応を行える。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正申請の対応を行える。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指定したゲームを遊んだことのある人のゲームの一覧を表示する。</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -3292,12 +2820,48 @@
     <t>α1.0</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録申請周りを削除（コミュニティの掲示板で行う）</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3473,9 +3037,6 @@
     <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3503,6 +3064,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3515,17 +3082,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -3542,7 +3106,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3560,7 +3124,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3578,7 +3142,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3596,7 +3160,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3614,25 +3178,7 @@
         <name val="游ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3765,20 +3311,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A4:D41" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A4:D41"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="ver." dataDxfId="3"/>
-    <tableColumn id="2" name="日付" dataDxfId="2"/>
-    <tableColumn id="3" name="シート" dataDxfId="1"/>
-    <tableColumn id="4" name="更新内容" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A4:C41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A4:C41"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="ver." dataDxfId="0"/>
+    <tableColumn id="2" name="日付" dataDxfId="1"/>
+    <tableColumn id="4" name="更新内容" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3852,6 +3397,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3886,6 +3432,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4061,81 +3608,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AC11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:29" ht="33.75" thickBot="1">
+    <row r="7" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="19.5" thickTop="1"/>
-    <row r="10" spans="1:29">
-      <c r="P10" s="20" t="s">
+    <row r="8" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="P10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21">
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="22">
         <v>42883</v>
       </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="P11" s="20" t="s">
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="P11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21">
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="22">
         <v>42883</v>
       </c>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4152,24 +3699,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:F171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E171"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="3" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.625" style="1"/>
+    <col min="3" max="3" width="48.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="3" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -4179,1301 +3725,1147 @@
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="8">
         <v>42883</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="24"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="24"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="24"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="24"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="24"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="24"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="24"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="24"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="24"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="24"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="24"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="24"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="24"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="24"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="24"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="D71" s="4"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="D72" s="4"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="D81" s="4"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="D82" s="4"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="D83" s="4"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="D84" s="4"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="D85" s="4"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="D87" s="4"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="D88" s="4"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="D89" s="4"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="D92" s="4"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="D102" s="4"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="D105" s="4"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="D108" s="4"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="D116" s="4"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="D117" s="4"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="D119" s="4"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="D122" s="4"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="D125" s="4"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="D128" s="4"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="D130" s="4"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="D133" s="4"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="D135" s="4"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="D136" s="4"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="D137" s="4"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="D138" s="4"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="D139" s="4"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="D140" s="4"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="D141" s="4"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="D142" s="4"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="D143" s="4"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="D144" s="4"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="D145" s="4"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="D146" s="4"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="D147" s="4"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="D148" s="4"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="D149" s="4"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="D150" s="4"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="D151" s="4"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="D152" s="4"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="D153" s="4"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="D154" s="4"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="D155" s="4"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="D156" s="4"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="D157" s="4"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="D158" s="4"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="D159" s="4"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="D160" s="4"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="3"/>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="E171" s="2"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D171" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5487,17 +4879,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:F235"/>
+  <dimension ref="A4:F219"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.25" style="1" bestFit="1" customWidth="1"/>
@@ -5507,2377 +4899,2153 @@
     <col min="6" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" thickTop="1">
-      <c r="A5" s="18" t="s">
+      <c r="D5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="15"/>
+      <c r="B42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="15"/>
+      <c r="B43" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="15"/>
+      <c r="B45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="15"/>
+      <c r="B46" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="15"/>
+      <c r="B47" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="15"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A55" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="15"/>
+      <c r="B56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="15"/>
+      <c r="B57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="15"/>
+      <c r="B58" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="19"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="15"/>
+      <c r="B59" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="19"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="15"/>
+      <c r="B60" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="15"/>
+      <c r="B61" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="15"/>
+      <c r="B62" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="15"/>
+      <c r="B63" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="15"/>
+      <c r="B64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="15"/>
+      <c r="B65" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="15"/>
+      <c r="B66" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="16"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="15"/>
+      <c r="B69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="15"/>
+      <c r="B70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="15"/>
+      <c r="B71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="15"/>
+      <c r="B72" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="15"/>
+      <c r="B73" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="15"/>
+      <c r="B74" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="15"/>
+      <c r="B75" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="15"/>
+      <c r="B76" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="15"/>
+      <c r="B77" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="15"/>
+      <c r="B78" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="15"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="15"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="15"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="15"/>
+      <c r="B83" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="15"/>
+      <c r="B84" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" s="19"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="15"/>
+      <c r="B85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="15"/>
+      <c r="B86" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="15"/>
+      <c r="B87" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="15"/>
+      <c r="B88" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="19"/>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="15"/>
+      <c r="B89" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="15"/>
+      <c r="B90" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="15"/>
+      <c r="B91" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="15"/>
+      <c r="B92" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="15"/>
+      <c r="B93" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="15"/>
+      <c r="B94" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" s="19"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="15"/>
+      <c r="B95" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" s="19"/>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="15"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="15"/>
+      <c r="B98" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="15"/>
+      <c r="B99" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="15"/>
+      <c r="B100" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="19"/>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="15"/>
+      <c r="B101" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="15"/>
+      <c r="B102" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="15"/>
+      <c r="B103" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="15"/>
+      <c r="B104" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="15"/>
+      <c r="B105" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="15"/>
+      <c r="B106" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" s="19"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="15"/>
+      <c r="B107" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="15"/>
+      <c r="B108" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" s="19"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="15"/>
+      <c r="B109" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="15"/>
+      <c r="B110" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="15"/>
+      <c r="B111" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E111" s="19"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="15"/>
+      <c r="B112" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="15"/>
+      <c r="B113" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="15"/>
+      <c r="B114" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16"/>
-      <c r="B7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16"/>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="37.5">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="37.5">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" ht="56.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="E114" s="19"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="15"/>
+      <c r="B115" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" ht="37.5">
-      <c r="A40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" ht="37.5">
-      <c r="A41" s="16"/>
-      <c r="B41" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="16"/>
-      <c r="B45" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="16"/>
-      <c r="B46" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="16"/>
-      <c r="B47" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="16"/>
-      <c r="B49" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="16"/>
-      <c r="B50" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="16"/>
-      <c r="B51" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="16"/>
-      <c r="B52" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="16"/>
-      <c r="B53" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="16"/>
-      <c r="B54" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="16"/>
-      <c r="B55" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="16"/>
-      <c r="B56" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="16"/>
-      <c r="B57" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="16"/>
-      <c r="B58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="16"/>
-      <c r="B59" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="16"/>
-      <c r="B60" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="16"/>
-      <c r="B61" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:6" ht="37.5">
-      <c r="A62" s="16"/>
-      <c r="B62" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="16"/>
-      <c r="B63" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="16"/>
-      <c r="B64" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="16"/>
-      <c r="B65" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="16"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="16"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="16"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="16"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="16"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" spans="1:6" ht="75">
-      <c r="A71" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" spans="1:6" ht="37.5">
-      <c r="A72" s="16"/>
-      <c r="B72" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="1:6" ht="37.5">
-      <c r="A73" s="16"/>
-      <c r="B73" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="1:6" ht="37.5">
-      <c r="A74" s="16"/>
-      <c r="B74" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="16"/>
-      <c r="B75" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="16"/>
-      <c r="B76" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="16"/>
-      <c r="B77" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="16"/>
-      <c r="B78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="16"/>
-      <c r="B79" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="16"/>
-      <c r="B80" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="16"/>
-      <c r="B81" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="16"/>
-      <c r="B82" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="17"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="16"/>
-      <c r="B85" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" ht="37.5">
-      <c r="A86" s="16"/>
-      <c r="B86" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="16"/>
-      <c r="B87" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="16"/>
-      <c r="B88" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="16"/>
-      <c r="B89" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="16"/>
-      <c r="B90" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="16"/>
-      <c r="B91" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="11"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="16"/>
-      <c r="B92" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="11"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="16"/>
-      <c r="B93" s="11" t="s">
+      <c r="C115" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="16"/>
-      <c r="B94" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="16"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="16"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="11"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="16"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="11"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="16"/>
-      <c r="B99" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="16"/>
-      <c r="B100" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="16"/>
-      <c r="B101" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="11"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="16"/>
-      <c r="B102" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="11"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="16"/>
-      <c r="B103" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="11"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="16"/>
-      <c r="B104" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="11"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="16"/>
-      <c r="B105" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="11"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="16"/>
-      <c r="B106" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="11"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="16"/>
-      <c r="B107" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="11"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="16"/>
-      <c r="B108" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="16"/>
-      <c r="B109" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="16"/>
-      <c r="B110" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="16"/>
-      <c r="B111" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="16"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B113" s="11" t="s">
+      <c r="D115" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="16"/>
-      <c r="B114" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="16"/>
-      <c r="B115" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="E115" s="19"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="16"/>
-      <c r="B116" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="11"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="16"/>
-      <c r="B117" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="11"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="16"/>
-      <c r="B118" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="11"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="16"/>
-      <c r="B119" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="11"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="16"/>
-      <c r="B120" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="11"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="16"/>
-      <c r="B121" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="11"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="16"/>
-      <c r="B122" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="11"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="16"/>
-      <c r="B123" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="11"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="16"/>
-      <c r="B124" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="11"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="16"/>
-      <c r="B125" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="16"/>
-      <c r="B126" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="16"/>
-      <c r="B127" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="16"/>
-      <c r="B128" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="11"/>
-    </row>
-    <row r="129" spans="1:6" ht="37.5">
-      <c r="A129" s="16"/>
-      <c r="B129" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="16"/>
-      <c r="B130" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="16"/>
-      <c r="B131" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="11"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="17"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="11"/>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="B116" s="10"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
